--- a/data/penguins_data.xlsx
+++ b/data/penguins_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sangmin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sangmin\Desktop\Github_repo\Streamlit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC651F09-6D30-4E59-B1D2-40FEF0212ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF912F7A-444E-406C-98DC-06C49DB6D761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4EE83AB1-2779-4FA9-B347-C344BEA70EEA}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="16">
   <si>
     <t>Adelie</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>Gentoo</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
   <si>
     <t>펭귄 종</t>
@@ -1049,10 +1046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89A01A4-1771-4395-93D5-1208C4D15F75}">
-  <dimension ref="A1:G345"/>
+  <dimension ref="A1:G342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A321" sqref="A321:G342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1067,25 +1064,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1164,20 +1161,20 @@
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>4</v>
+      <c r="C5">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="D5">
+        <v>19.3</v>
+      </c>
+      <c r="E5">
+        <v>193</v>
+      </c>
+      <c r="F5">
+        <v>3450</v>
       </c>
       <c r="G5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1188,19 +1185,19 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>36.700000000000003</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="D6">
-        <v>19.3</v>
+        <v>20.6</v>
       </c>
       <c r="E6">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F6">
-        <v>3450</v>
+        <v>3650</v>
       </c>
       <c r="G6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1211,19 +1208,19 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>39.299999999999997</v>
+        <v>38.9</v>
       </c>
       <c r="D7">
-        <v>20.6</v>
+        <v>17.8</v>
       </c>
       <c r="E7">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F7">
-        <v>3650</v>
+        <v>3625</v>
       </c>
       <c r="G7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1234,19 +1231,19 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>38.9</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="D8">
-        <v>17.8</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="E8">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="F8">
-        <v>3625</v>
+        <v>4675</v>
       </c>
       <c r="G8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1257,19 +1254,19 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>39.200000000000003</v>
+        <v>34.1</v>
       </c>
       <c r="D9">
-        <v>19.600000000000001</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E9">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F9">
-        <v>4675</v>
+        <v>3475</v>
       </c>
       <c r="G9" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1280,16 +1277,16 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>34.1</v>
+        <v>42</v>
       </c>
       <c r="D10">
-        <v>18.100000000000001</v>
+        <v>20.2</v>
       </c>
       <c r="E10">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F10">
-        <v>3475</v>
+        <v>4250</v>
       </c>
       <c r="G10" t="s">
         <v>4</v>
@@ -1303,16 +1300,16 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>42</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="D11">
-        <v>20.2</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="E11">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F11">
-        <v>4250</v>
+        <v>3300</v>
       </c>
       <c r="G11" t="s">
         <v>4</v>
@@ -1329,13 +1326,13 @@
         <v>37.799999999999997</v>
       </c>
       <c r="D12">
-        <v>17.100000000000001</v>
+        <v>17.3</v>
       </c>
       <c r="E12">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F12">
-        <v>3300</v>
+        <v>3700</v>
       </c>
       <c r="G12" t="s">
         <v>4</v>
@@ -1349,19 +1346,19 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>37.799999999999997</v>
+        <v>41.1</v>
       </c>
       <c r="D13">
-        <v>17.3</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="E13">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F13">
-        <v>3700</v>
+        <v>3200</v>
       </c>
       <c r="G13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1372,19 +1369,19 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>41.1</v>
+        <v>38.6</v>
       </c>
       <c r="D14">
-        <v>17.600000000000001</v>
+        <v>21.2</v>
       </c>
       <c r="E14">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F14">
-        <v>3200</v>
+        <v>3800</v>
       </c>
       <c r="G14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1395,16 +1392,16 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>38.6</v>
+        <v>34.6</v>
       </c>
       <c r="D15">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="E15">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F15">
-        <v>3800</v>
+        <v>4400</v>
       </c>
       <c r="G15" t="s">
         <v>2</v>
@@ -1418,19 +1415,19 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>34.6</v>
+        <v>36.6</v>
       </c>
       <c r="D16">
-        <v>21.1</v>
+        <v>17.8</v>
       </c>
       <c r="E16">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="F16">
-        <v>4400</v>
+        <v>3700</v>
       </c>
       <c r="G16" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1441,16 +1438,16 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>36.6</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="D17">
-        <v>17.8</v>
+        <v>19</v>
       </c>
       <c r="E17">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="F17">
-        <v>3700</v>
+        <v>3450</v>
       </c>
       <c r="G17" t="s">
         <v>3</v>
@@ -1464,19 +1461,19 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>38.700000000000003</v>
+        <v>42.5</v>
       </c>
       <c r="D18">
-        <v>19</v>
+        <v>20.7</v>
       </c>
       <c r="E18">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F18">
-        <v>3450</v>
+        <v>4500</v>
       </c>
       <c r="G18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1487,19 +1484,19 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>42.5</v>
+        <v>34.4</v>
       </c>
       <c r="D19">
-        <v>20.7</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="E19">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F19">
-        <v>4500</v>
+        <v>3325</v>
       </c>
       <c r="G19" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1510,19 +1507,19 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>34.4</v>
+        <v>46</v>
       </c>
       <c r="D20">
-        <v>18.399999999999999</v>
+        <v>21.5</v>
       </c>
       <c r="E20">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="F20">
-        <v>3325</v>
+        <v>4200</v>
       </c>
       <c r="G20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1530,22 +1527,22 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>46</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="D21">
-        <v>21.5</v>
+        <v>18.3</v>
       </c>
       <c r="E21">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="F21">
-        <v>4200</v>
+        <v>3400</v>
       </c>
       <c r="G21" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1556,19 +1553,19 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>37.799999999999997</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="D22">
-        <v>18.3</v>
+        <v>18.7</v>
       </c>
       <c r="E22">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F22">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="G22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1579,19 +1576,19 @@
         <v>5</v>
       </c>
       <c r="C23">
-        <v>37.700000000000003</v>
+        <v>35.9</v>
       </c>
       <c r="D23">
-        <v>18.7</v>
+        <v>19.2</v>
       </c>
       <c r="E23">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F23">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="G23" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1602,19 +1599,19 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>35.9</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="D24">
-        <v>19.2</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E24">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F24">
-        <v>3800</v>
+        <v>3950</v>
       </c>
       <c r="G24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1625,16 +1622,16 @@
         <v>5</v>
       </c>
       <c r="C25">
-        <v>38.200000000000003</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="D25">
-        <v>18.100000000000001</v>
+        <v>17.2</v>
       </c>
       <c r="E25">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F25">
-        <v>3950</v>
+        <v>3800</v>
       </c>
       <c r="G25" t="s">
         <v>2</v>
@@ -1648,19 +1645,19 @@
         <v>5</v>
       </c>
       <c r="C26">
-        <v>38.799999999999997</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="D26">
-        <v>17.2</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="E26">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F26">
         <v>3800</v>
       </c>
       <c r="G26" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1671,19 +1668,19 @@
         <v>5</v>
       </c>
       <c r="C27">
-        <v>35.299999999999997</v>
+        <v>40.6</v>
       </c>
       <c r="D27">
-        <v>18.899999999999999</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="E27">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F27">
-        <v>3800</v>
+        <v>3550</v>
       </c>
       <c r="G27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1694,19 +1691,19 @@
         <v>5</v>
       </c>
       <c r="C28">
-        <v>40.6</v>
+        <v>40.5</v>
       </c>
       <c r="D28">
-        <v>18.600000000000001</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="E28">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F28">
-        <v>3550</v>
+        <v>3200</v>
       </c>
       <c r="G28" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1717,16 +1714,16 @@
         <v>5</v>
       </c>
       <c r="C29">
-        <v>40.5</v>
+        <v>37.9</v>
       </c>
       <c r="D29">
-        <v>17.899999999999999</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="E29">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="F29">
-        <v>3200</v>
+        <v>3150</v>
       </c>
       <c r="G29" t="s">
         <v>3</v>
@@ -1740,19 +1737,19 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>37.9</v>
+        <v>40.5</v>
       </c>
       <c r="D30">
-        <v>18.600000000000001</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="E30">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F30">
-        <v>3150</v>
+        <v>3950</v>
       </c>
       <c r="G30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1760,22 +1757,22 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31">
-        <v>40.5</v>
+        <v>39.5</v>
       </c>
       <c r="D31">
-        <v>18.899999999999999</v>
+        <v>16.7</v>
       </c>
       <c r="E31">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F31">
-        <v>3950</v>
+        <v>3250</v>
       </c>
       <c r="G31" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1786,19 +1783,19 @@
         <v>6</v>
       </c>
       <c r="C32">
-        <v>39.5</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="D32">
-        <v>16.7</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E32">
         <v>178</v>
       </c>
       <c r="F32">
-        <v>3250</v>
+        <v>3900</v>
       </c>
       <c r="G32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1809,19 +1806,19 @@
         <v>6</v>
       </c>
       <c r="C33">
-        <v>37.200000000000003</v>
+        <v>39.5</v>
       </c>
       <c r="D33">
-        <v>18.100000000000001</v>
+        <v>17.8</v>
       </c>
       <c r="E33">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="F33">
-        <v>3900</v>
+        <v>3300</v>
       </c>
       <c r="G33" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1832,19 +1829,19 @@
         <v>6</v>
       </c>
       <c r="C34">
-        <v>39.5</v>
+        <v>40.9</v>
       </c>
       <c r="D34">
-        <v>17.8</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="E34">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F34">
-        <v>3300</v>
+        <v>3900</v>
       </c>
       <c r="G34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1855,19 +1852,19 @@
         <v>6</v>
       </c>
       <c r="C35">
-        <v>40.9</v>
+        <v>36.4</v>
       </c>
       <c r="D35">
-        <v>18.899999999999999</v>
+        <v>17</v>
       </c>
       <c r="E35">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="F35">
-        <v>3900</v>
+        <v>3325</v>
       </c>
       <c r="G35" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -1878,19 +1875,19 @@
         <v>6</v>
       </c>
       <c r="C36">
-        <v>36.4</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="D36">
-        <v>17</v>
+        <v>21.1</v>
       </c>
       <c r="E36">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F36">
-        <v>3325</v>
+        <v>4150</v>
       </c>
       <c r="G36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1901,16 +1898,16 @@
         <v>6</v>
       </c>
       <c r="C37">
-        <v>39.200000000000003</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="D37">
-        <v>21.1</v>
+        <v>20</v>
       </c>
       <c r="E37">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F37">
-        <v>4150</v>
+        <v>3950</v>
       </c>
       <c r="G37" t="s">
         <v>2</v>
@@ -1924,19 +1921,19 @@
         <v>6</v>
       </c>
       <c r="C38">
-        <v>38.799999999999997</v>
+        <v>42.2</v>
       </c>
       <c r="D38">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="E38">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F38">
-        <v>3950</v>
+        <v>3550</v>
       </c>
       <c r="G38" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -1947,16 +1944,16 @@
         <v>6</v>
       </c>
       <c r="C39">
-        <v>42.2</v>
+        <v>37.6</v>
       </c>
       <c r="D39">
-        <v>18.5</v>
+        <v>19.3</v>
       </c>
       <c r="E39">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F39">
-        <v>3550</v>
+        <v>3300</v>
       </c>
       <c r="G39" t="s">
         <v>3</v>
@@ -1970,19 +1967,19 @@
         <v>6</v>
       </c>
       <c r="C40">
-        <v>37.6</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="D40">
-        <v>19.3</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="E40">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F40">
-        <v>3300</v>
+        <v>4650</v>
       </c>
       <c r="G40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -1993,19 +1990,19 @@
         <v>6</v>
       </c>
       <c r="C41">
-        <v>39.799999999999997</v>
+        <v>36.5</v>
       </c>
       <c r="D41">
-        <v>19.100000000000001</v>
+        <v>18</v>
       </c>
       <c r="E41">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F41">
-        <v>4650</v>
+        <v>3150</v>
       </c>
       <c r="G41" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -2016,19 +2013,19 @@
         <v>6</v>
       </c>
       <c r="C42">
-        <v>36.5</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="D42">
-        <v>18</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="E42">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="F42">
-        <v>3150</v>
+        <v>3900</v>
       </c>
       <c r="G42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -2039,19 +2036,19 @@
         <v>6</v>
       </c>
       <c r="C43">
-        <v>40.799999999999997</v>
+        <v>36</v>
       </c>
       <c r="D43">
-        <v>18.399999999999999</v>
+        <v>18.5</v>
       </c>
       <c r="E43">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F43">
-        <v>3900</v>
+        <v>3100</v>
       </c>
       <c r="G43" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -2062,19 +2059,19 @@
         <v>6</v>
       </c>
       <c r="C44">
-        <v>36</v>
+        <v>44.1</v>
       </c>
       <c r="D44">
-        <v>18.5</v>
+        <v>19.7</v>
       </c>
       <c r="E44">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="F44">
-        <v>3100</v>
+        <v>4400</v>
       </c>
       <c r="G44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -2085,19 +2082,19 @@
         <v>6</v>
       </c>
       <c r="C45">
-        <v>44.1</v>
+        <v>37</v>
       </c>
       <c r="D45">
-        <v>19.7</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="E45">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="F45">
-        <v>4400</v>
+        <v>3000</v>
       </c>
       <c r="G45" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -2108,19 +2105,19 @@
         <v>6</v>
       </c>
       <c r="C46">
-        <v>37</v>
+        <v>39.6</v>
       </c>
       <c r="D46">
-        <v>16.899999999999999</v>
+        <v>18.8</v>
       </c>
       <c r="E46">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F46">
-        <v>3000</v>
+        <v>4600</v>
       </c>
       <c r="G46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -2131,16 +2128,16 @@
         <v>6</v>
       </c>
       <c r="C47">
-        <v>39.6</v>
+        <v>41.1</v>
       </c>
       <c r="D47">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="E47">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F47">
-        <v>4600</v>
+        <v>3425</v>
       </c>
       <c r="G47" t="s">
         <v>2</v>
@@ -2154,19 +2151,19 @@
         <v>6</v>
       </c>
       <c r="C48">
-        <v>41.1</v>
+        <v>37.5</v>
       </c>
       <c r="D48">
-        <v>19</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="E48">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F48">
-        <v>3425</v>
+        <v>2975</v>
       </c>
       <c r="G48" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -2177,19 +2174,19 @@
         <v>6</v>
       </c>
       <c r="C49">
-        <v>37.5</v>
+        <v>36</v>
       </c>
       <c r="D49">
-        <v>18.899999999999999</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="E49">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="F49">
-        <v>2975</v>
+        <v>3450</v>
       </c>
       <c r="G49" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -2200,19 +2197,19 @@
         <v>6</v>
       </c>
       <c r="C50">
-        <v>36</v>
+        <v>42.3</v>
       </c>
       <c r="D50">
-        <v>17.899999999999999</v>
+        <v>21.2</v>
       </c>
       <c r="E50">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F50">
-        <v>3450</v>
+        <v>4150</v>
       </c>
       <c r="G50" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -2220,22 +2217,22 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C51">
-        <v>42.3</v>
+        <v>39.6</v>
       </c>
       <c r="D51">
-        <v>21.2</v>
+        <v>17.7</v>
       </c>
       <c r="E51">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F51">
-        <v>4150</v>
+        <v>3500</v>
       </c>
       <c r="G51" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -2246,19 +2243,19 @@
         <v>5</v>
       </c>
       <c r="C52">
-        <v>39.6</v>
+        <v>40.1</v>
       </c>
       <c r="D52">
-        <v>17.7</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="E52">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F52">
-        <v>3500</v>
+        <v>4300</v>
       </c>
       <c r="G52" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -2269,19 +2266,19 @@
         <v>5</v>
       </c>
       <c r="C53">
-        <v>40.1</v>
+        <v>35</v>
       </c>
       <c r="D53">
-        <v>18.899999999999999</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="E53">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F53">
-        <v>4300</v>
+        <v>3450</v>
       </c>
       <c r="G53" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -2292,19 +2289,19 @@
         <v>5</v>
       </c>
       <c r="C54">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D54">
-        <v>17.899999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="E54">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F54">
-        <v>3450</v>
+        <v>4050</v>
       </c>
       <c r="G54" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -2315,19 +2312,19 @@
         <v>5</v>
       </c>
       <c r="C55">
-        <v>42</v>
+        <v>34.5</v>
       </c>
       <c r="D55">
-        <v>19.5</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E55">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="F55">
-        <v>4050</v>
+        <v>2900</v>
       </c>
       <c r="G55" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -2338,19 +2335,19 @@
         <v>5</v>
       </c>
       <c r="C56">
-        <v>34.5</v>
+        <v>41.4</v>
       </c>
       <c r="D56">
-        <v>18.100000000000001</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="E56">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F56">
-        <v>2900</v>
+        <v>3700</v>
       </c>
       <c r="G56" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -2361,19 +2358,19 @@
         <v>5</v>
       </c>
       <c r="C57">
-        <v>41.4</v>
+        <v>39</v>
       </c>
       <c r="D57">
-        <v>18.600000000000001</v>
+        <v>17.5</v>
       </c>
       <c r="E57">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F57">
-        <v>3700</v>
+        <v>3550</v>
       </c>
       <c r="G57" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -2384,19 +2381,19 @@
         <v>5</v>
       </c>
       <c r="C58">
-        <v>39</v>
+        <v>40.6</v>
       </c>
       <c r="D58">
-        <v>17.5</v>
+        <v>18.8</v>
       </c>
       <c r="E58">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F58">
-        <v>3550</v>
+        <v>3800</v>
       </c>
       <c r="G58" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -2407,19 +2404,19 @@
         <v>5</v>
       </c>
       <c r="C59">
-        <v>40.6</v>
+        <v>36.5</v>
       </c>
       <c r="D59">
-        <v>18.8</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="E59">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F59">
-        <v>3800</v>
+        <v>2850</v>
       </c>
       <c r="G59" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -2430,19 +2427,19 @@
         <v>5</v>
       </c>
       <c r="C60">
-        <v>36.5</v>
+        <v>37.6</v>
       </c>
       <c r="D60">
-        <v>16.600000000000001</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="E60">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="F60">
-        <v>2850</v>
+        <v>3750</v>
       </c>
       <c r="G60" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -2453,19 +2450,19 @@
         <v>5</v>
       </c>
       <c r="C61">
-        <v>37.6</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="D61">
-        <v>19.100000000000001</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="E61">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="F61">
-        <v>3750</v>
+        <v>3150</v>
       </c>
       <c r="G61" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -2476,19 +2473,19 @@
         <v>5</v>
       </c>
       <c r="C62">
-        <v>35.700000000000003</v>
+        <v>41.3</v>
       </c>
       <c r="D62">
-        <v>16.899999999999999</v>
+        <v>21.1</v>
       </c>
       <c r="E62">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="F62">
-        <v>3150</v>
+        <v>4400</v>
       </c>
       <c r="G62" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -2499,19 +2496,19 @@
         <v>5</v>
       </c>
       <c r="C63">
-        <v>41.3</v>
+        <v>37.6</v>
       </c>
       <c r="D63">
-        <v>21.1</v>
+        <v>17</v>
       </c>
       <c r="E63">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F63">
-        <v>4400</v>
+        <v>3600</v>
       </c>
       <c r="G63" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -2522,19 +2519,19 @@
         <v>5</v>
       </c>
       <c r="C64">
-        <v>37.6</v>
+        <v>41.1</v>
       </c>
       <c r="D64">
-        <v>17</v>
+        <v>18.2</v>
       </c>
       <c r="E64">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F64">
-        <v>3600</v>
+        <v>4050</v>
       </c>
       <c r="G64" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -2545,19 +2542,19 @@
         <v>5</v>
       </c>
       <c r="C65">
-        <v>41.1</v>
+        <v>36.4</v>
       </c>
       <c r="D65">
-        <v>18.2</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="E65">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F65">
-        <v>4050</v>
+        <v>2850</v>
       </c>
       <c r="G65" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -2568,19 +2565,19 @@
         <v>5</v>
       </c>
       <c r="C66">
-        <v>36.4</v>
+        <v>41.6</v>
       </c>
       <c r="D66">
-        <v>17.100000000000001</v>
+        <v>18</v>
       </c>
       <c r="E66">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="F66">
-        <v>2850</v>
+        <v>3950</v>
       </c>
       <c r="G66" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -2591,19 +2588,19 @@
         <v>5</v>
       </c>
       <c r="C67">
-        <v>41.6</v>
+        <v>35.5</v>
       </c>
       <c r="D67">
-        <v>18</v>
+        <v>16.2</v>
       </c>
       <c r="E67">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F67">
-        <v>3950</v>
+        <v>3350</v>
       </c>
       <c r="G67" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -2614,19 +2611,19 @@
         <v>5</v>
       </c>
       <c r="C68">
-        <v>35.5</v>
+        <v>41.1</v>
       </c>
       <c r="D68">
-        <v>16.2</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="E68">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F68">
-        <v>3350</v>
+        <v>4100</v>
       </c>
       <c r="G68" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -2634,22 +2631,22 @@
         <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C69">
-        <v>41.1</v>
+        <v>35.9</v>
       </c>
       <c r="D69">
-        <v>19.100000000000001</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="E69">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F69">
-        <v>4100</v>
+        <v>3050</v>
       </c>
       <c r="G69" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -2660,19 +2657,19 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>35.9</v>
+        <v>41.8</v>
       </c>
       <c r="D70">
-        <v>16.600000000000001</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="E70">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F70">
-        <v>3050</v>
+        <v>4450</v>
       </c>
       <c r="G70" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -2683,19 +2680,19 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <v>41.8</v>
+        <v>33.5</v>
       </c>
       <c r="D71">
-        <v>19.399999999999999</v>
+        <v>19</v>
       </c>
       <c r="E71">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F71">
-        <v>4450</v>
+        <v>3600</v>
       </c>
       <c r="G71" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -2706,19 +2703,19 @@
         <v>1</v>
       </c>
       <c r="C72">
-        <v>33.5</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="D72">
-        <v>19</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="E72">
         <v>190</v>
       </c>
       <c r="F72">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="G72" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -2729,19 +2726,19 @@
         <v>1</v>
       </c>
       <c r="C73">
-        <v>39.700000000000003</v>
+        <v>39.6</v>
       </c>
       <c r="D73">
-        <v>18.399999999999999</v>
+        <v>17.2</v>
       </c>
       <c r="E73">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F73">
-        <v>3900</v>
+        <v>3550</v>
       </c>
       <c r="G73" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -2752,19 +2749,19 @@
         <v>1</v>
       </c>
       <c r="C74">
-        <v>39.6</v>
+        <v>45.8</v>
       </c>
       <c r="D74">
-        <v>17.2</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="E74">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F74">
-        <v>3550</v>
+        <v>4150</v>
       </c>
       <c r="G74" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -2775,19 +2772,19 @@
         <v>1</v>
       </c>
       <c r="C75">
-        <v>45.8</v>
+        <v>35.5</v>
       </c>
       <c r="D75">
-        <v>18.899999999999999</v>
+        <v>17.5</v>
       </c>
       <c r="E75">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F75">
-        <v>4150</v>
+        <v>3700</v>
       </c>
       <c r="G75" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -2798,19 +2795,19 @@
         <v>1</v>
       </c>
       <c r="C76">
-        <v>35.5</v>
+        <v>42.8</v>
       </c>
       <c r="D76">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="E76">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F76">
-        <v>3700</v>
+        <v>4250</v>
       </c>
       <c r="G76" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -2821,19 +2818,19 @@
         <v>1</v>
       </c>
       <c r="C77">
-        <v>42.8</v>
+        <v>40.9</v>
       </c>
       <c r="D77">
-        <v>18.5</v>
+        <v>16.8</v>
       </c>
       <c r="E77">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F77">
-        <v>4250</v>
+        <v>3700</v>
       </c>
       <c r="G77" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -2844,19 +2841,19 @@
         <v>1</v>
       </c>
       <c r="C78">
-        <v>40.9</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="D78">
-        <v>16.8</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="E78">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F78">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="G78" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -2867,19 +2864,19 @@
         <v>1</v>
       </c>
       <c r="C79">
-        <v>37.200000000000003</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="D79">
-        <v>19.399999999999999</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="E79">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F79">
-        <v>3900</v>
+        <v>3550</v>
       </c>
       <c r="G79" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -2890,19 +2887,19 @@
         <v>1</v>
       </c>
       <c r="C80">
-        <v>36.200000000000003</v>
+        <v>42.1</v>
       </c>
       <c r="D80">
-        <v>16.100000000000001</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="E80">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="F80">
-        <v>3550</v>
+        <v>4000</v>
       </c>
       <c r="G80" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -2913,19 +2910,19 @@
         <v>1</v>
       </c>
       <c r="C81">
-        <v>42.1</v>
+        <v>34.6</v>
       </c>
       <c r="D81">
-        <v>19.100000000000001</v>
+        <v>17.2</v>
       </c>
       <c r="E81">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F81">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="G81" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -2936,19 +2933,19 @@
         <v>1</v>
       </c>
       <c r="C82">
-        <v>34.6</v>
+        <v>42.9</v>
       </c>
       <c r="D82">
-        <v>17.2</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="E82">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F82">
-        <v>3200</v>
+        <v>4700</v>
       </c>
       <c r="G82" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -2959,19 +2956,19 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>42.9</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="D83">
-        <v>17.600000000000001</v>
+        <v>18.8</v>
       </c>
       <c r="E83">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F83">
-        <v>4700</v>
+        <v>3800</v>
       </c>
       <c r="G83" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -2982,19 +2979,19 @@
         <v>1</v>
       </c>
       <c r="C84">
-        <v>36.700000000000003</v>
+        <v>35.1</v>
       </c>
       <c r="D84">
-        <v>18.8</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="E84">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F84">
-        <v>3800</v>
+        <v>4200</v>
       </c>
       <c r="G84" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -3002,22 +2999,22 @@
         <v>0</v>
       </c>
       <c r="B85" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C85">
-        <v>35.1</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="D85">
-        <v>19.399999999999999</v>
+        <v>17.8</v>
       </c>
       <c r="E85">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F85">
-        <v>4200</v>
+        <v>3350</v>
       </c>
       <c r="G85" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -3028,19 +3025,19 @@
         <v>6</v>
       </c>
       <c r="C86">
-        <v>37.299999999999997</v>
+        <v>41.3</v>
       </c>
       <c r="D86">
-        <v>17.8</v>
+        <v>20.3</v>
       </c>
       <c r="E86">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F86">
-        <v>3350</v>
+        <v>3550</v>
       </c>
       <c r="G86" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -3051,16 +3048,16 @@
         <v>6</v>
       </c>
       <c r="C87">
-        <v>41.3</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="D87">
-        <v>20.3</v>
+        <v>19.5</v>
       </c>
       <c r="E87">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F87">
-        <v>3550</v>
+        <v>3800</v>
       </c>
       <c r="G87" t="s">
         <v>2</v>
@@ -3074,19 +3071,19 @@
         <v>6</v>
       </c>
       <c r="C88">
-        <v>36.299999999999997</v>
+        <v>36.9</v>
       </c>
       <c r="D88">
-        <v>19.5</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="E88">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F88">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="G88" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -3097,19 +3094,19 @@
         <v>6</v>
       </c>
       <c r="C89">
-        <v>36.9</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="D89">
-        <v>18.600000000000001</v>
+        <v>19.2</v>
       </c>
       <c r="E89">
         <v>189</v>
       </c>
       <c r="F89">
-        <v>3500</v>
+        <v>3950</v>
       </c>
       <c r="G89" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -3120,19 +3117,19 @@
         <v>6</v>
       </c>
       <c r="C90">
-        <v>38.299999999999997</v>
+        <v>38.9</v>
       </c>
       <c r="D90">
-        <v>19.2</v>
+        <v>18.8</v>
       </c>
       <c r="E90">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F90">
-        <v>3950</v>
+        <v>3600</v>
       </c>
       <c r="G90" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -3143,16 +3140,16 @@
         <v>6</v>
       </c>
       <c r="C91">
-        <v>38.9</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="D91">
-        <v>18.8</v>
+        <v>18</v>
       </c>
       <c r="E91">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="F91">
-        <v>3600</v>
+        <v>3550</v>
       </c>
       <c r="G91" t="s">
         <v>3</v>
@@ -3166,19 +3163,19 @@
         <v>6</v>
       </c>
       <c r="C92">
-        <v>35.700000000000003</v>
+        <v>41.1</v>
       </c>
       <c r="D92">
-        <v>18</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E92">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F92">
-        <v>3550</v>
+        <v>4300</v>
       </c>
       <c r="G92" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -3189,19 +3186,19 @@
         <v>6</v>
       </c>
       <c r="C93">
-        <v>41.1</v>
+        <v>34</v>
       </c>
       <c r="D93">
-        <v>18.100000000000001</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="E93">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="F93">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="G93" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -3212,19 +3209,19 @@
         <v>6</v>
       </c>
       <c r="C94">
-        <v>34</v>
+        <v>39.6</v>
       </c>
       <c r="D94">
-        <v>17.100000000000001</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E94">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F94">
-        <v>3400</v>
+        <v>4450</v>
       </c>
       <c r="G94" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -3235,19 +3232,19 @@
         <v>6</v>
       </c>
       <c r="C95">
-        <v>39.6</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="D95">
-        <v>18.100000000000001</v>
+        <v>17.3</v>
       </c>
       <c r="E95">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F95">
-        <v>4450</v>
+        <v>3300</v>
       </c>
       <c r="G95" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -3258,19 +3255,19 @@
         <v>6</v>
       </c>
       <c r="C96">
-        <v>36.200000000000003</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="D96">
-        <v>17.3</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="E96">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="F96">
-        <v>3300</v>
+        <v>4300</v>
       </c>
       <c r="G96" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -3281,19 +3278,19 @@
         <v>6</v>
       </c>
       <c r="C97">
-        <v>40.799999999999997</v>
+        <v>38.1</v>
       </c>
       <c r="D97">
-        <v>18.899999999999999</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="E97">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="F97">
-        <v>4300</v>
+        <v>3700</v>
       </c>
       <c r="G97" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -3304,19 +3301,19 @@
         <v>6</v>
       </c>
       <c r="C98">
-        <v>38.1</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="D98">
-        <v>18.600000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="E98">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F98">
-        <v>3700</v>
+        <v>4350</v>
       </c>
       <c r="G98" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -3327,19 +3324,19 @@
         <v>6</v>
       </c>
       <c r="C99">
-        <v>40.299999999999997</v>
+        <v>33.1</v>
       </c>
       <c r="D99">
-        <v>18.5</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="E99">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="F99">
-        <v>4350</v>
+        <v>2900</v>
       </c>
       <c r="G99" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -3350,19 +3347,19 @@
         <v>6</v>
       </c>
       <c r="C100">
-        <v>33.1</v>
+        <v>43.2</v>
       </c>
       <c r="D100">
-        <v>16.100000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="E100">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="F100">
-        <v>2900</v>
+        <v>4100</v>
       </c>
       <c r="G100" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
@@ -3370,22 +3367,22 @@
         <v>0</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C101">
-        <v>43.2</v>
+        <v>35</v>
       </c>
       <c r="D101">
-        <v>18.5</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="E101">
         <v>192</v>
       </c>
       <c r="F101">
-        <v>4100</v>
+        <v>3725</v>
       </c>
       <c r="G101" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
@@ -3396,19 +3393,19 @@
         <v>5</v>
       </c>
       <c r="C102">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D102">
-        <v>17.899999999999999</v>
+        <v>20</v>
       </c>
       <c r="E102">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="F102">
-        <v>3725</v>
+        <v>4725</v>
       </c>
       <c r="G102" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
@@ -3419,19 +3416,19 @@
         <v>5</v>
       </c>
       <c r="C103">
-        <v>41</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="D103">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E103">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="F103">
-        <v>4725</v>
+        <v>3075</v>
       </c>
       <c r="G103" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -3442,19 +3439,19 @@
         <v>5</v>
       </c>
       <c r="C104">
-        <v>37.700000000000003</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="D104">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E104">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="F104">
-        <v>3075</v>
+        <v>4250</v>
       </c>
       <c r="G104" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
@@ -3465,19 +3462,19 @@
         <v>5</v>
       </c>
       <c r="C105">
-        <v>37.799999999999997</v>
+        <v>37.9</v>
       </c>
       <c r="D105">
-        <v>20</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="E105">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F105">
-        <v>4250</v>
+        <v>2925</v>
       </c>
       <c r="G105" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
@@ -3488,19 +3485,19 @@
         <v>5</v>
       </c>
       <c r="C106">
-        <v>37.9</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="D106">
-        <v>18.600000000000001</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="E106">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F106">
-        <v>2925</v>
+        <v>3550</v>
       </c>
       <c r="G106" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
@@ -3511,19 +3508,19 @@
         <v>5</v>
       </c>
       <c r="C107">
-        <v>39.700000000000003</v>
+        <v>38.6</v>
       </c>
       <c r="D107">
-        <v>18.899999999999999</v>
+        <v>17.2</v>
       </c>
       <c r="E107">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="F107">
-        <v>3550</v>
+        <v>3750</v>
       </c>
       <c r="G107" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
@@ -3534,19 +3531,19 @@
         <v>5</v>
       </c>
       <c r="C108">
-        <v>38.6</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="D108">
-        <v>17.2</v>
+        <v>20</v>
       </c>
       <c r="E108">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="F108">
-        <v>3750</v>
+        <v>3900</v>
       </c>
       <c r="G108" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
@@ -3557,19 +3554,19 @@
         <v>5</v>
       </c>
       <c r="C109">
-        <v>38.200000000000003</v>
+        <v>38.1</v>
       </c>
       <c r="D109">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E109">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F109">
-        <v>3900</v>
+        <v>3175</v>
       </c>
       <c r="G109" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
@@ -3580,19 +3577,19 @@
         <v>5</v>
       </c>
       <c r="C110">
-        <v>38.1</v>
+        <v>43.2</v>
       </c>
       <c r="D110">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E110">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="F110">
-        <v>3175</v>
+        <v>4775</v>
       </c>
       <c r="G110" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
@@ -3603,19 +3600,19 @@
         <v>5</v>
       </c>
       <c r="C111">
-        <v>43.2</v>
+        <v>38.1</v>
       </c>
       <c r="D111">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="E111">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F111">
-        <v>4775</v>
+        <v>3825</v>
       </c>
       <c r="G111" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
@@ -3626,19 +3623,19 @@
         <v>5</v>
       </c>
       <c r="C112">
-        <v>38.1</v>
+        <v>45.6</v>
       </c>
       <c r="D112">
-        <v>16.5</v>
+        <v>20.3</v>
       </c>
       <c r="E112">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F112">
-        <v>3825</v>
+        <v>4600</v>
       </c>
       <c r="G112" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
@@ -3649,19 +3646,19 @@
         <v>5</v>
       </c>
       <c r="C113">
-        <v>45.6</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="D113">
-        <v>20.3</v>
+        <v>17.7</v>
       </c>
       <c r="E113">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F113">
-        <v>4600</v>
+        <v>3200</v>
       </c>
       <c r="G113" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
@@ -3672,19 +3669,19 @@
         <v>5</v>
       </c>
       <c r="C114">
-        <v>39.700000000000003</v>
+        <v>42.2</v>
       </c>
       <c r="D114">
-        <v>17.7</v>
+        <v>19.5</v>
       </c>
       <c r="E114">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F114">
-        <v>3200</v>
+        <v>4275</v>
       </c>
       <c r="G114" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
@@ -3695,19 +3692,19 @@
         <v>5</v>
       </c>
       <c r="C115">
-        <v>42.2</v>
+        <v>39.6</v>
       </c>
       <c r="D115">
-        <v>19.5</v>
+        <v>20.7</v>
       </c>
       <c r="E115">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F115">
-        <v>4275</v>
+        <v>3900</v>
       </c>
       <c r="G115" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
@@ -3718,19 +3715,19 @@
         <v>5</v>
       </c>
       <c r="C116">
-        <v>39.6</v>
+        <v>42.7</v>
       </c>
       <c r="D116">
-        <v>20.7</v>
+        <v>18.3</v>
       </c>
       <c r="E116">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F116">
-        <v>3900</v>
+        <v>4075</v>
       </c>
       <c r="G116" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
@@ -3738,22 +3735,22 @@
         <v>0</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C117">
-        <v>42.7</v>
+        <v>38.6</v>
       </c>
       <c r="D117">
-        <v>18.3</v>
+        <v>17</v>
       </c>
       <c r="E117">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F117">
-        <v>4075</v>
+        <v>2900</v>
       </c>
       <c r="G117" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
@@ -3764,19 +3761,19 @@
         <v>1</v>
       </c>
       <c r="C118">
-        <v>38.6</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="D118">
-        <v>17</v>
+        <v>20.5</v>
       </c>
       <c r="E118">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="F118">
-        <v>2900</v>
+        <v>3775</v>
       </c>
       <c r="G118" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
@@ -3787,19 +3784,19 @@
         <v>1</v>
       </c>
       <c r="C119">
-        <v>37.299999999999997</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="D119">
-        <v>20.5</v>
+        <v>17</v>
       </c>
       <c r="E119">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="F119">
-        <v>3775</v>
+        <v>3350</v>
       </c>
       <c r="G119" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
@@ -3810,19 +3807,19 @@
         <v>1</v>
       </c>
       <c r="C120">
-        <v>35.700000000000003</v>
+        <v>41.1</v>
       </c>
       <c r="D120">
-        <v>17</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="E120">
         <v>189</v>
       </c>
       <c r="F120">
-        <v>3350</v>
+        <v>3325</v>
       </c>
       <c r="G120" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
@@ -3833,19 +3830,19 @@
         <v>1</v>
       </c>
       <c r="C121">
-        <v>41.1</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="D121">
-        <v>18.600000000000001</v>
+        <v>17.2</v>
       </c>
       <c r="E121">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F121">
-        <v>3325</v>
+        <v>3150</v>
       </c>
       <c r="G121" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
@@ -3856,19 +3853,19 @@
         <v>1</v>
       </c>
       <c r="C122">
-        <v>36.200000000000003</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="D122">
-        <v>17.2</v>
+        <v>19.8</v>
       </c>
       <c r="E122">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="F122">
-        <v>3150</v>
+        <v>3500</v>
       </c>
       <c r="G122" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
@@ -3879,19 +3876,19 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <v>37.700000000000003</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="D123">
-        <v>19.8</v>
+        <v>17</v>
       </c>
       <c r="E123">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="F123">
-        <v>3500</v>
+        <v>3450</v>
       </c>
       <c r="G123" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
@@ -3902,19 +3899,19 @@
         <v>1</v>
       </c>
       <c r="C124">
-        <v>40.200000000000003</v>
+        <v>41.4</v>
       </c>
       <c r="D124">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="E124">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="F124">
-        <v>3450</v>
+        <v>3875</v>
       </c>
       <c r="G124" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
@@ -3925,19 +3922,19 @@
         <v>1</v>
       </c>
       <c r="C125">
-        <v>41.4</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="D125">
-        <v>18.5</v>
+        <v>15.9</v>
       </c>
       <c r="E125">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="F125">
-        <v>3875</v>
+        <v>3050</v>
       </c>
       <c r="G125" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
@@ -3948,19 +3945,19 @@
         <v>1</v>
       </c>
       <c r="C126">
-        <v>35.200000000000003</v>
+        <v>40.6</v>
       </c>
       <c r="D126">
-        <v>15.9</v>
+        <v>19</v>
       </c>
       <c r="E126">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="F126">
-        <v>3050</v>
+        <v>4000</v>
       </c>
       <c r="G126" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
@@ -3971,19 +3968,19 @@
         <v>1</v>
       </c>
       <c r="C127">
-        <v>40.6</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="D127">
-        <v>19</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="E127">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F127">
-        <v>4000</v>
+        <v>3275</v>
       </c>
       <c r="G127" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
@@ -3994,19 +3991,19 @@
         <v>1</v>
       </c>
       <c r="C128">
-        <v>38.799999999999997</v>
+        <v>41.5</v>
       </c>
       <c r="D128">
-        <v>17.600000000000001</v>
+        <v>18.3</v>
       </c>
       <c r="E128">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F128">
-        <v>3275</v>
+        <v>4300</v>
       </c>
       <c r="G128" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
@@ -4017,19 +4014,19 @@
         <v>1</v>
       </c>
       <c r="C129">
-        <v>41.5</v>
+        <v>39</v>
       </c>
       <c r="D129">
-        <v>18.3</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="E129">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F129">
-        <v>4300</v>
+        <v>3050</v>
       </c>
       <c r="G129" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
@@ -4040,19 +4037,19 @@
         <v>1</v>
       </c>
       <c r="C130">
-        <v>39</v>
+        <v>44.1</v>
       </c>
       <c r="D130">
-        <v>17.100000000000001</v>
+        <v>18</v>
       </c>
       <c r="E130">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="F130">
-        <v>3050</v>
+        <v>4000</v>
       </c>
       <c r="G130" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
@@ -4063,19 +4060,19 @@
         <v>1</v>
       </c>
       <c r="C131">
-        <v>44.1</v>
+        <v>38.5</v>
       </c>
       <c r="D131">
-        <v>18</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="E131">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="F131">
-        <v>4000</v>
+        <v>3325</v>
       </c>
       <c r="G131" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
@@ -4086,19 +4083,19 @@
         <v>1</v>
       </c>
       <c r="C132">
-        <v>38.5</v>
+        <v>43.1</v>
       </c>
       <c r="D132">
-        <v>17.899999999999999</v>
+        <v>19.2</v>
       </c>
       <c r="E132">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="F132">
-        <v>3325</v>
+        <v>3500</v>
       </c>
       <c r="G132" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
@@ -4106,22 +4103,22 @@
         <v>0</v>
       </c>
       <c r="B133" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C133">
-        <v>43.1</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="D133">
-        <v>19.2</v>
+        <v>18.5</v>
       </c>
       <c r="E133">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F133">
         <v>3500</v>
       </c>
       <c r="G133" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
@@ -4132,19 +4129,19 @@
         <v>6</v>
       </c>
       <c r="C134">
-        <v>36.799999999999997</v>
+        <v>37.5</v>
       </c>
       <c r="D134">
         <v>18.5</v>
       </c>
       <c r="E134">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F134">
-        <v>3500</v>
+        <v>4475</v>
       </c>
       <c r="G134" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
@@ -4155,19 +4152,19 @@
         <v>6</v>
       </c>
       <c r="C135">
-        <v>37.5</v>
+        <v>38.1</v>
       </c>
       <c r="D135">
-        <v>18.5</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="E135">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="F135">
-        <v>4475</v>
+        <v>3425</v>
       </c>
       <c r="G135" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
@@ -4178,19 +4175,19 @@
         <v>6</v>
       </c>
       <c r="C136">
-        <v>38.1</v>
+        <v>41.1</v>
       </c>
       <c r="D136">
-        <v>17.600000000000001</v>
+        <v>17.5</v>
       </c>
       <c r="E136">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F136">
-        <v>3425</v>
+        <v>3900</v>
       </c>
       <c r="G136" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
@@ -4201,19 +4198,19 @@
         <v>6</v>
       </c>
       <c r="C137">
-        <v>41.1</v>
+        <v>35.6</v>
       </c>
       <c r="D137">
         <v>17.5</v>
       </c>
       <c r="E137">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F137">
-        <v>3900</v>
+        <v>3175</v>
       </c>
       <c r="G137" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
@@ -4224,19 +4221,19 @@
         <v>6</v>
       </c>
       <c r="C138">
-        <v>35.6</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="D138">
-        <v>17.5</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="E138">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="F138">
-        <v>3175</v>
+        <v>3975</v>
       </c>
       <c r="G138" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
@@ -4247,19 +4244,19 @@
         <v>6</v>
       </c>
       <c r="C139">
-        <v>40.200000000000003</v>
+        <v>37</v>
       </c>
       <c r="D139">
-        <v>20.100000000000001</v>
+        <v>16.5</v>
       </c>
       <c r="E139">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F139">
-        <v>3975</v>
+        <v>3400</v>
       </c>
       <c r="G139" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
@@ -4270,19 +4267,19 @@
         <v>6</v>
       </c>
       <c r="C140">
-        <v>37</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="D140">
-        <v>16.5</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="E140">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="F140">
-        <v>3400</v>
+        <v>4250</v>
       </c>
       <c r="G140" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
@@ -4293,19 +4290,19 @@
         <v>6</v>
       </c>
       <c r="C141">
-        <v>39.700000000000003</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="D141">
-        <v>17.899999999999999</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="E141">
         <v>193</v>
       </c>
       <c r="F141">
-        <v>4250</v>
+        <v>3400</v>
       </c>
       <c r="G141" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
@@ -4316,19 +4313,19 @@
         <v>6</v>
       </c>
       <c r="C142">
-        <v>40.200000000000003</v>
+        <v>40.6</v>
       </c>
       <c r="D142">
-        <v>17.100000000000001</v>
+        <v>17.2</v>
       </c>
       <c r="E142">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F142">
-        <v>3400</v>
+        <v>3475</v>
       </c>
       <c r="G142" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
@@ -4339,19 +4336,19 @@
         <v>6</v>
       </c>
       <c r="C143">
-        <v>40.6</v>
+        <v>32.1</v>
       </c>
       <c r="D143">
-        <v>17.2</v>
+        <v>15.5</v>
       </c>
       <c r="E143">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F143">
-        <v>3475</v>
+        <v>3050</v>
       </c>
       <c r="G143" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
@@ -4362,19 +4359,19 @@
         <v>6</v>
       </c>
       <c r="C144">
-        <v>32.1</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="D144">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="E144">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F144">
-        <v>3050</v>
+        <v>3725</v>
       </c>
       <c r="G144" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
@@ -4385,19 +4382,19 @@
         <v>6</v>
       </c>
       <c r="C145">
-        <v>40.700000000000003</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="D145">
-        <v>17</v>
+        <v>16.8</v>
       </c>
       <c r="E145">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F145">
-        <v>3725</v>
+        <v>3000</v>
       </c>
       <c r="G145" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
@@ -4408,19 +4405,19 @@
         <v>6</v>
       </c>
       <c r="C146">
-        <v>37.299999999999997</v>
+        <v>39</v>
       </c>
       <c r="D146">
-        <v>16.8</v>
+        <v>18.7</v>
       </c>
       <c r="E146">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F146">
-        <v>3000</v>
+        <v>3650</v>
       </c>
       <c r="G146" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
@@ -4431,16 +4428,16 @@
         <v>6</v>
       </c>
       <c r="C147">
-        <v>39</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="D147">
-        <v>18.7</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="E147">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F147">
-        <v>3650</v>
+        <v>4250</v>
       </c>
       <c r="G147" t="s">
         <v>2</v>
@@ -4454,19 +4451,19 @@
         <v>6</v>
       </c>
       <c r="C148">
-        <v>39.200000000000003</v>
+        <v>36.6</v>
       </c>
       <c r="D148">
-        <v>18.600000000000001</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="E148">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F148">
-        <v>4250</v>
+        <v>3475</v>
       </c>
       <c r="G148" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
@@ -4477,16 +4474,16 @@
         <v>6</v>
       </c>
       <c r="C149">
-        <v>36.6</v>
+        <v>36</v>
       </c>
       <c r="D149">
-        <v>18.399999999999999</v>
+        <v>17.8</v>
       </c>
       <c r="E149">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="F149">
-        <v>3475</v>
+        <v>3450</v>
       </c>
       <c r="G149" t="s">
         <v>3</v>
@@ -4500,19 +4497,19 @@
         <v>6</v>
       </c>
       <c r="C150">
-        <v>36</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="D150">
-        <v>17.8</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E150">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F150">
-        <v>3450</v>
+        <v>3750</v>
       </c>
       <c r="G150" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
@@ -4523,19 +4520,19 @@
         <v>6</v>
       </c>
       <c r="C151">
-        <v>37.799999999999997</v>
+        <v>36</v>
       </c>
       <c r="D151">
-        <v>18.100000000000001</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="E151">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F151">
-        <v>3750</v>
+        <v>3700</v>
       </c>
       <c r="G151" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
@@ -4546,42 +4543,42 @@
         <v>6</v>
       </c>
       <c r="C152">
-        <v>36</v>
+        <v>41.5</v>
       </c>
       <c r="D152">
-        <v>17.100000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="E152">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="F152">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="G152" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B153" t="s">
         <v>6</v>
       </c>
       <c r="C153">
-        <v>41.5</v>
+        <v>46.5</v>
       </c>
       <c r="D153">
-        <v>18.5</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="E153">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="F153">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="G153" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
@@ -4592,19 +4589,19 @@
         <v>6</v>
       </c>
       <c r="C154">
-        <v>46.5</v>
+        <v>50</v>
       </c>
       <c r="D154">
-        <v>17.899999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="E154">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F154">
-        <v>3500</v>
+        <v>3900</v>
       </c>
       <c r="G154" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
@@ -4615,16 +4612,16 @@
         <v>6</v>
       </c>
       <c r="C155">
-        <v>50</v>
+        <v>51.3</v>
       </c>
       <c r="D155">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="E155">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F155">
-        <v>3900</v>
+        <v>3650</v>
       </c>
       <c r="G155" t="s">
         <v>2</v>
@@ -4638,19 +4635,19 @@
         <v>6</v>
       </c>
       <c r="C156">
-        <v>51.3</v>
+        <v>45.4</v>
       </c>
       <c r="D156">
-        <v>19.2</v>
+        <v>18.7</v>
       </c>
       <c r="E156">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F156">
-        <v>3650</v>
+        <v>3525</v>
       </c>
       <c r="G156" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
@@ -4661,19 +4658,19 @@
         <v>6</v>
       </c>
       <c r="C157">
-        <v>45.4</v>
+        <v>52.7</v>
       </c>
       <c r="D157">
-        <v>18.7</v>
+        <v>19.8</v>
       </c>
       <c r="E157">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="F157">
-        <v>3525</v>
+        <v>3725</v>
       </c>
       <c r="G157" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
@@ -4684,19 +4681,19 @@
         <v>6</v>
       </c>
       <c r="C158">
-        <v>52.7</v>
+        <v>45.2</v>
       </c>
       <c r="D158">
-        <v>19.8</v>
+        <v>17.8</v>
       </c>
       <c r="E158">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F158">
-        <v>3725</v>
+        <v>3950</v>
       </c>
       <c r="G158" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
@@ -4707,16 +4704,16 @@
         <v>6</v>
       </c>
       <c r="C159">
-        <v>45.2</v>
+        <v>46.1</v>
       </c>
       <c r="D159">
-        <v>17.8</v>
+        <v>18.2</v>
       </c>
       <c r="E159">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="F159">
-        <v>3950</v>
+        <v>3250</v>
       </c>
       <c r="G159" t="s">
         <v>3</v>
@@ -4730,19 +4727,19 @@
         <v>6</v>
       </c>
       <c r="C160">
-        <v>46.1</v>
+        <v>51.3</v>
       </c>
       <c r="D160">
         <v>18.2</v>
       </c>
       <c r="E160">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="F160">
-        <v>3250</v>
+        <v>3750</v>
       </c>
       <c r="G160" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
@@ -4753,19 +4750,19 @@
         <v>6</v>
       </c>
       <c r="C161">
-        <v>51.3</v>
+        <v>46</v>
       </c>
       <c r="D161">
-        <v>18.2</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="E161">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F161">
-        <v>3750</v>
+        <v>4150</v>
       </c>
       <c r="G161" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
@@ -4776,19 +4773,19 @@
         <v>6</v>
       </c>
       <c r="C162">
-        <v>46</v>
+        <v>51.3</v>
       </c>
       <c r="D162">
-        <v>18.899999999999999</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="E162">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F162">
-        <v>4150</v>
+        <v>3700</v>
       </c>
       <c r="G162" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
@@ -4799,19 +4796,19 @@
         <v>6</v>
       </c>
       <c r="C163">
-        <v>51.3</v>
+        <v>46.6</v>
       </c>
       <c r="D163">
-        <v>19.899999999999999</v>
+        <v>17.8</v>
       </c>
       <c r="E163">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F163">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="G163" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -4822,19 +4819,19 @@
         <v>6</v>
       </c>
       <c r="C164">
-        <v>46.6</v>
+        <v>51.7</v>
       </c>
       <c r="D164">
-        <v>17.8</v>
+        <v>20.3</v>
       </c>
       <c r="E164">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F164">
-        <v>3800</v>
+        <v>3775</v>
       </c>
       <c r="G164" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
@@ -4845,19 +4842,19 @@
         <v>6</v>
       </c>
       <c r="C165">
-        <v>51.7</v>
+        <v>47</v>
       </c>
       <c r="D165">
-        <v>20.3</v>
+        <v>17.3</v>
       </c>
       <c r="E165">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="F165">
-        <v>3775</v>
+        <v>3700</v>
       </c>
       <c r="G165" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
@@ -4868,19 +4865,19 @@
         <v>6</v>
       </c>
       <c r="C166">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D166">
-        <v>17.3</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E166">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="F166">
-        <v>3700</v>
+        <v>4050</v>
       </c>
       <c r="G166" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
@@ -4891,19 +4888,19 @@
         <v>6</v>
       </c>
       <c r="C167">
-        <v>52</v>
+        <v>45.9</v>
       </c>
       <c r="D167">
-        <v>18.100000000000001</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="E167">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="F167">
-        <v>4050</v>
+        <v>3575</v>
       </c>
       <c r="G167" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
@@ -4914,19 +4911,19 @@
         <v>6</v>
       </c>
       <c r="C168">
-        <v>45.9</v>
+        <v>50.5</v>
       </c>
       <c r="D168">
-        <v>17.100000000000001</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="E168">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="F168">
-        <v>3575</v>
+        <v>4050</v>
       </c>
       <c r="G168" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
@@ -4937,16 +4934,16 @@
         <v>6</v>
       </c>
       <c r="C169">
-        <v>50.5</v>
+        <v>50.3</v>
       </c>
       <c r="D169">
-        <v>19.600000000000001</v>
+        <v>20</v>
       </c>
       <c r="E169">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F169">
-        <v>4050</v>
+        <v>3300</v>
       </c>
       <c r="G169" t="s">
         <v>2</v>
@@ -4960,19 +4957,19 @@
         <v>6</v>
       </c>
       <c r="C170">
-        <v>50.3</v>
+        <v>58</v>
       </c>
       <c r="D170">
-        <v>20</v>
+        <v>17.8</v>
       </c>
       <c r="E170">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="F170">
-        <v>3300</v>
+        <v>3700</v>
       </c>
       <c r="G170" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
@@ -4983,16 +4980,16 @@
         <v>6</v>
       </c>
       <c r="C171">
-        <v>58</v>
+        <v>46.4</v>
       </c>
       <c r="D171">
-        <v>17.8</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="E171">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="F171">
-        <v>3700</v>
+        <v>3450</v>
       </c>
       <c r="G171" t="s">
         <v>3</v>
@@ -5006,19 +5003,19 @@
         <v>6</v>
       </c>
       <c r="C172">
-        <v>46.4</v>
+        <v>49.2</v>
       </c>
       <c r="D172">
-        <v>18.600000000000001</v>
+        <v>18.2</v>
       </c>
       <c r="E172">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F172">
-        <v>3450</v>
+        <v>4400</v>
       </c>
       <c r="G172" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
@@ -5029,19 +5026,19 @@
         <v>6</v>
       </c>
       <c r="C173">
-        <v>49.2</v>
+        <v>42.4</v>
       </c>
       <c r="D173">
-        <v>18.2</v>
+        <v>17.3</v>
       </c>
       <c r="E173">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="F173">
-        <v>4400</v>
+        <v>3600</v>
       </c>
       <c r="G173" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
@@ -5052,19 +5049,19 @@
         <v>6</v>
       </c>
       <c r="C174">
-        <v>42.4</v>
+        <v>48.5</v>
       </c>
       <c r="D174">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="E174">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="F174">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="G174" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
@@ -5075,19 +5072,19 @@
         <v>6</v>
       </c>
       <c r="C175">
-        <v>48.5</v>
+        <v>43.2</v>
       </c>
       <c r="D175">
-        <v>17.5</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="E175">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F175">
-        <v>3400</v>
+        <v>2900</v>
       </c>
       <c r="G175" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
@@ -5098,19 +5095,19 @@
         <v>6</v>
       </c>
       <c r="C176">
-        <v>43.2</v>
+        <v>50.6</v>
       </c>
       <c r="D176">
-        <v>16.600000000000001</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="E176">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F176">
-        <v>2900</v>
+        <v>3800</v>
       </c>
       <c r="G176" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
@@ -5121,19 +5118,19 @@
         <v>6</v>
       </c>
       <c r="C177">
-        <v>50.6</v>
+        <v>46.7</v>
       </c>
       <c r="D177">
-        <v>19.399999999999999</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="E177">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F177">
-        <v>3800</v>
+        <v>3300</v>
       </c>
       <c r="G177" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
@@ -5144,19 +5141,19 @@
         <v>6</v>
       </c>
       <c r="C178">
-        <v>46.7</v>
+        <v>52</v>
       </c>
       <c r="D178">
-        <v>17.899999999999999</v>
+        <v>19</v>
       </c>
       <c r="E178">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F178">
-        <v>3300</v>
+        <v>4150</v>
       </c>
       <c r="G178" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
@@ -5167,19 +5164,19 @@
         <v>6</v>
       </c>
       <c r="C179">
-        <v>52</v>
+        <v>50.5</v>
       </c>
       <c r="D179">
-        <v>19</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="E179">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F179">
-        <v>4150</v>
+        <v>3400</v>
       </c>
       <c r="G179" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
@@ -5190,19 +5187,19 @@
         <v>6</v>
       </c>
       <c r="C180">
-        <v>50.5</v>
+        <v>49.5</v>
       </c>
       <c r="D180">
-        <v>18.399999999999999</v>
+        <v>19</v>
       </c>
       <c r="E180">
         <v>200</v>
       </c>
       <c r="F180">
-        <v>3400</v>
+        <v>3800</v>
       </c>
       <c r="G180" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
@@ -5213,19 +5210,19 @@
         <v>6</v>
       </c>
       <c r="C181">
-        <v>49.5</v>
+        <v>46.4</v>
       </c>
       <c r="D181">
-        <v>19</v>
+        <v>17.8</v>
       </c>
       <c r="E181">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="F181">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="G181" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
@@ -5236,19 +5233,19 @@
         <v>6</v>
       </c>
       <c r="C182">
-        <v>46.4</v>
+        <v>52.8</v>
       </c>
       <c r="D182">
-        <v>17.8</v>
+        <v>20</v>
       </c>
       <c r="E182">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="F182">
-        <v>3700</v>
+        <v>4550</v>
       </c>
       <c r="G182" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
@@ -5259,19 +5256,19 @@
         <v>6</v>
       </c>
       <c r="C183">
-        <v>52.8</v>
+        <v>40.9</v>
       </c>
       <c r="D183">
-        <v>20</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="E183">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="F183">
-        <v>4550</v>
+        <v>3200</v>
       </c>
       <c r="G183" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
@@ -5282,19 +5279,19 @@
         <v>6</v>
       </c>
       <c r="C184">
-        <v>40.9</v>
+        <v>54.2</v>
       </c>
       <c r="D184">
-        <v>16.600000000000001</v>
+        <v>20.8</v>
       </c>
       <c r="E184">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="F184">
-        <v>3200</v>
+        <v>4300</v>
       </c>
       <c r="G184" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
@@ -5305,19 +5302,19 @@
         <v>6</v>
       </c>
       <c r="C185">
-        <v>54.2</v>
+        <v>42.5</v>
       </c>
       <c r="D185">
-        <v>20.8</v>
+        <v>16.7</v>
       </c>
       <c r="E185">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="F185">
-        <v>4300</v>
+        <v>3350</v>
       </c>
       <c r="G185" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
@@ -5328,19 +5325,19 @@
         <v>6</v>
       </c>
       <c r="C186">
-        <v>42.5</v>
+        <v>51</v>
       </c>
       <c r="D186">
-        <v>16.7</v>
+        <v>18.8</v>
       </c>
       <c r="E186">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="F186">
-        <v>3350</v>
+        <v>4100</v>
       </c>
       <c r="G186" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
@@ -5351,16 +5348,16 @@
         <v>6</v>
       </c>
       <c r="C187">
-        <v>51</v>
+        <v>49.7</v>
       </c>
       <c r="D187">
-        <v>18.8</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="E187">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F187">
-        <v>4100</v>
+        <v>3600</v>
       </c>
       <c r="G187" t="s">
         <v>2</v>
@@ -5374,19 +5371,19 @@
         <v>6</v>
       </c>
       <c r="C188">
-        <v>49.7</v>
+        <v>47.5</v>
       </c>
       <c r="D188">
-        <v>18.600000000000001</v>
+        <v>16.8</v>
       </c>
       <c r="E188">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F188">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="G188" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
@@ -5397,16 +5394,16 @@
         <v>6</v>
       </c>
       <c r="C189">
-        <v>47.5</v>
+        <v>47.6</v>
       </c>
       <c r="D189">
-        <v>16.8</v>
+        <v>18.3</v>
       </c>
       <c r="E189">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F189">
-        <v>3900</v>
+        <v>3850</v>
       </c>
       <c r="G189" t="s">
         <v>3</v>
@@ -5420,19 +5417,19 @@
         <v>6</v>
       </c>
       <c r="C190">
-        <v>47.6</v>
+        <v>52</v>
       </c>
       <c r="D190">
-        <v>18.3</v>
+        <v>20.7</v>
       </c>
       <c r="E190">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F190">
-        <v>3850</v>
+        <v>4800</v>
       </c>
       <c r="G190" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
@@ -5443,19 +5440,19 @@
         <v>6</v>
       </c>
       <c r="C191">
-        <v>52</v>
+        <v>46.9</v>
       </c>
       <c r="D191">
-        <v>20.7</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="E191">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="F191">
-        <v>4800</v>
+        <v>2700</v>
       </c>
       <c r="G191" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
@@ -5466,19 +5463,19 @@
         <v>6</v>
       </c>
       <c r="C192">
-        <v>46.9</v>
+        <v>53.5</v>
       </c>
       <c r="D192">
-        <v>16.600000000000001</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="E192">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="F192">
-        <v>2700</v>
+        <v>4500</v>
       </c>
       <c r="G192" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
@@ -5489,16 +5486,16 @@
         <v>6</v>
       </c>
       <c r="C193">
-        <v>53.5</v>
+        <v>49</v>
       </c>
       <c r="D193">
-        <v>19.899999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="E193">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F193">
-        <v>4500</v>
+        <v>3950</v>
       </c>
       <c r="G193" t="s">
         <v>2</v>
@@ -5512,19 +5509,19 @@
         <v>6</v>
       </c>
       <c r="C194">
-        <v>49</v>
+        <v>46.2</v>
       </c>
       <c r="D194">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="E194">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="F194">
-        <v>3950</v>
+        <v>3650</v>
       </c>
       <c r="G194" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
@@ -5535,19 +5532,19 @@
         <v>6</v>
       </c>
       <c r="C195">
-        <v>46.2</v>
+        <v>50.9</v>
       </c>
       <c r="D195">
-        <v>17.5</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="E195">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F195">
-        <v>3650</v>
+        <v>3550</v>
       </c>
       <c r="G195" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
@@ -5558,19 +5555,19 @@
         <v>6</v>
       </c>
       <c r="C196">
-        <v>50.9</v>
+        <v>45.5</v>
       </c>
       <c r="D196">
-        <v>19.100000000000001</v>
+        <v>17</v>
       </c>
       <c r="E196">
         <v>196</v>
       </c>
       <c r="F196">
-        <v>3550</v>
+        <v>3500</v>
       </c>
       <c r="G196" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
@@ -5581,16 +5578,16 @@
         <v>6</v>
       </c>
       <c r="C197">
-        <v>45.5</v>
+        <v>50.9</v>
       </c>
       <c r="D197">
-        <v>17</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="E197">
         <v>196</v>
       </c>
       <c r="F197">
-        <v>3500</v>
+        <v>3675</v>
       </c>
       <c r="G197" t="s">
         <v>3</v>
@@ -5604,19 +5601,19 @@
         <v>6</v>
       </c>
       <c r="C198">
-        <v>50.9</v>
+        <v>50.8</v>
       </c>
       <c r="D198">
-        <v>17.899999999999999</v>
+        <v>18.5</v>
       </c>
       <c r="E198">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="F198">
-        <v>3675</v>
+        <v>4450</v>
       </c>
       <c r="G198" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
@@ -5627,19 +5624,19 @@
         <v>6</v>
       </c>
       <c r="C199">
-        <v>50.8</v>
+        <v>50.1</v>
       </c>
       <c r="D199">
-        <v>18.5</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="E199">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="F199">
-        <v>4450</v>
+        <v>3400</v>
       </c>
       <c r="G199" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
@@ -5650,19 +5647,19 @@
         <v>6</v>
       </c>
       <c r="C200">
-        <v>50.1</v>
+        <v>49</v>
       </c>
       <c r="D200">
-        <v>17.899999999999999</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="E200">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="F200">
-        <v>3400</v>
+        <v>4300</v>
       </c>
       <c r="G200" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
@@ -5673,16 +5670,16 @@
         <v>6</v>
       </c>
       <c r="C201">
-        <v>49</v>
+        <v>51.5</v>
       </c>
       <c r="D201">
-        <v>19.600000000000001</v>
+        <v>18.7</v>
       </c>
       <c r="E201">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="F201">
-        <v>4300</v>
+        <v>3250</v>
       </c>
       <c r="G201" t="s">
         <v>2</v>
@@ -5696,19 +5693,19 @@
         <v>6</v>
       </c>
       <c r="C202">
-        <v>51.5</v>
+        <v>49.8</v>
       </c>
       <c r="D202">
-        <v>18.7</v>
+        <v>17.3</v>
       </c>
       <c r="E202">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="F202">
-        <v>3250</v>
+        <v>3675</v>
       </c>
       <c r="G202" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
@@ -5719,16 +5716,16 @@
         <v>6</v>
       </c>
       <c r="C203">
-        <v>49.8</v>
+        <v>48.1</v>
       </c>
       <c r="D203">
-        <v>17.3</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="E203">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F203">
-        <v>3675</v>
+        <v>3325</v>
       </c>
       <c r="G203" t="s">
         <v>3</v>
@@ -5742,19 +5739,19 @@
         <v>6</v>
       </c>
       <c r="C204">
-        <v>48.1</v>
+        <v>51.4</v>
       </c>
       <c r="D204">
-        <v>16.399999999999999</v>
+        <v>19</v>
       </c>
       <c r="E204">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F204">
-        <v>3325</v>
+        <v>3950</v>
       </c>
       <c r="G204" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
@@ -5765,19 +5762,19 @@
         <v>6</v>
       </c>
       <c r="C205">
-        <v>51.4</v>
+        <v>45.7</v>
       </c>
       <c r="D205">
-        <v>19</v>
+        <v>17.3</v>
       </c>
       <c r="E205">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F205">
-        <v>3950</v>
+        <v>3600</v>
       </c>
       <c r="G205" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
@@ -5788,19 +5785,19 @@
         <v>6</v>
       </c>
       <c r="C206">
-        <v>45.7</v>
+        <v>50.7</v>
       </c>
       <c r="D206">
-        <v>17.3</v>
+        <v>19.7</v>
       </c>
       <c r="E206">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="F206">
-        <v>3600</v>
+        <v>4050</v>
       </c>
       <c r="G206" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
@@ -5811,19 +5808,19 @@
         <v>6</v>
       </c>
       <c r="C207">
-        <v>50.7</v>
+        <v>42.5</v>
       </c>
       <c r="D207">
-        <v>19.7</v>
+        <v>17.3</v>
       </c>
       <c r="E207">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="F207">
-        <v>4050</v>
+        <v>3350</v>
       </c>
       <c r="G207" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
@@ -5834,19 +5831,19 @@
         <v>6</v>
       </c>
       <c r="C208">
-        <v>42.5</v>
+        <v>52.2</v>
       </c>
       <c r="D208">
-        <v>17.3</v>
+        <v>18.8</v>
       </c>
       <c r="E208">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="F208">
-        <v>3350</v>
+        <v>3450</v>
       </c>
       <c r="G208" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
@@ -5857,19 +5854,19 @@
         <v>6</v>
       </c>
       <c r="C209">
-        <v>52.2</v>
+        <v>45.2</v>
       </c>
       <c r="D209">
-        <v>18.8</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="E209">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F209">
-        <v>3450</v>
+        <v>3250</v>
       </c>
       <c r="G209" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
@@ -5880,19 +5877,19 @@
         <v>6</v>
       </c>
       <c r="C210">
-        <v>45.2</v>
+        <v>49.3</v>
       </c>
       <c r="D210">
-        <v>16.600000000000001</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="E210">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="F210">
-        <v>3250</v>
+        <v>4050</v>
       </c>
       <c r="G210" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
@@ -5903,16 +5900,16 @@
         <v>6</v>
       </c>
       <c r="C211">
-        <v>49.3</v>
+        <v>50.2</v>
       </c>
       <c r="D211">
-        <v>19.899999999999999</v>
+        <v>18.8</v>
       </c>
       <c r="E211">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F211">
-        <v>4050</v>
+        <v>3800</v>
       </c>
       <c r="G211" t="s">
         <v>2</v>
@@ -5926,19 +5923,19 @@
         <v>6</v>
       </c>
       <c r="C212">
-        <v>50.2</v>
+        <v>45.6</v>
       </c>
       <c r="D212">
-        <v>18.8</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="E212">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F212">
-        <v>3800</v>
+        <v>3525</v>
       </c>
       <c r="G212" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
@@ -5949,19 +5946,19 @@
         <v>6</v>
       </c>
       <c r="C213">
-        <v>45.6</v>
+        <v>51.9</v>
       </c>
       <c r="D213">
-        <v>19.399999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="E213">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="F213">
-        <v>3525</v>
+        <v>3950</v>
       </c>
       <c r="G213" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
@@ -5972,19 +5969,19 @@
         <v>6</v>
       </c>
       <c r="C214">
-        <v>51.9</v>
+        <v>46.8</v>
       </c>
       <c r="D214">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="E214">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="F214">
-        <v>3950</v>
+        <v>3650</v>
       </c>
       <c r="G214" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
@@ -5995,13 +5992,13 @@
         <v>6</v>
       </c>
       <c r="C215">
-        <v>46.8</v>
+        <v>45.7</v>
       </c>
       <c r="D215">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="E215">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F215">
         <v>3650</v>
@@ -6018,19 +6015,19 @@
         <v>6</v>
       </c>
       <c r="C216">
-        <v>45.7</v>
+        <v>55.8</v>
       </c>
       <c r="D216">
-        <v>17</v>
+        <v>19.8</v>
       </c>
       <c r="E216">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="F216">
-        <v>3650</v>
+        <v>4000</v>
       </c>
       <c r="G216" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
@@ -6041,19 +6038,19 @@
         <v>6</v>
       </c>
       <c r="C217">
-        <v>55.8</v>
+        <v>43.5</v>
       </c>
       <c r="D217">
-        <v>19.8</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E217">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F217">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="G217" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
@@ -6064,19 +6061,19 @@
         <v>6</v>
       </c>
       <c r="C218">
-        <v>43.5</v>
+        <v>49.6</v>
       </c>
       <c r="D218">
-        <v>18.100000000000001</v>
+        <v>18.2</v>
       </c>
       <c r="E218">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F218">
-        <v>3400</v>
+        <v>3775</v>
       </c>
       <c r="G218" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
@@ -6087,16 +6084,16 @@
         <v>6</v>
       </c>
       <c r="C219">
-        <v>49.6</v>
+        <v>50.8</v>
       </c>
       <c r="D219">
-        <v>18.2</v>
+        <v>19</v>
       </c>
       <c r="E219">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="F219">
-        <v>3775</v>
+        <v>4100</v>
       </c>
       <c r="G219" t="s">
         <v>2</v>
@@ -6110,39 +6107,39 @@
         <v>6</v>
       </c>
       <c r="C220">
-        <v>50.8</v>
+        <v>50.2</v>
       </c>
       <c r="D220">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="E220">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="F220">
-        <v>4100</v>
+        <v>3775</v>
       </c>
       <c r="G220" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C221">
-        <v>50.2</v>
+        <v>46.1</v>
       </c>
       <c r="D221">
-        <v>18.7</v>
+        <v>13.2</v>
       </c>
       <c r="E221">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="F221">
-        <v>3775</v>
+        <v>4500</v>
       </c>
       <c r="G221" t="s">
         <v>3</v>
@@ -6156,19 +6153,19 @@
         <v>5</v>
       </c>
       <c r="C222">
-        <v>46.1</v>
+        <v>50</v>
       </c>
       <c r="D222">
-        <v>13.2</v>
+        <v>16.3</v>
       </c>
       <c r="E222">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="F222">
-        <v>4500</v>
+        <v>5700</v>
       </c>
       <c r="G222" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
@@ -6179,19 +6176,19 @@
         <v>5</v>
       </c>
       <c r="C223">
-        <v>50</v>
+        <v>48.7</v>
       </c>
       <c r="D223">
-        <v>16.3</v>
+        <v>14.1</v>
       </c>
       <c r="E223">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="F223">
-        <v>5700</v>
+        <v>4450</v>
       </c>
       <c r="G223" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
@@ -6202,19 +6199,19 @@
         <v>5</v>
       </c>
       <c r="C224">
-        <v>48.7</v>
+        <v>50</v>
       </c>
       <c r="D224">
-        <v>14.1</v>
+        <v>15.2</v>
       </c>
       <c r="E224">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="F224">
-        <v>4450</v>
+        <v>5700</v>
       </c>
       <c r="G224" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
@@ -6225,16 +6222,16 @@
         <v>5</v>
       </c>
       <c r="C225">
-        <v>50</v>
+        <v>47.6</v>
       </c>
       <c r="D225">
-        <v>15.2</v>
+        <v>14.5</v>
       </c>
       <c r="E225">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F225">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="G225" t="s">
         <v>2</v>
@@ -6248,19 +6245,19 @@
         <v>5</v>
       </c>
       <c r="C226">
-        <v>47.6</v>
+        <v>46.5</v>
       </c>
       <c r="D226">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="E226">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F226">
-        <v>5400</v>
+        <v>4550</v>
       </c>
       <c r="G226" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
@@ -6271,16 +6268,16 @@
         <v>5</v>
       </c>
       <c r="C227">
-        <v>46.5</v>
+        <v>45.4</v>
       </c>
       <c r="D227">
-        <v>13.5</v>
+        <v>14.6</v>
       </c>
       <c r="E227">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F227">
-        <v>4550</v>
+        <v>4800</v>
       </c>
       <c r="G227" t="s">
         <v>3</v>
@@ -6294,19 +6291,19 @@
         <v>5</v>
       </c>
       <c r="C228">
-        <v>45.4</v>
+        <v>46.7</v>
       </c>
       <c r="D228">
-        <v>14.6</v>
+        <v>15.3</v>
       </c>
       <c r="E228">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="F228">
-        <v>4800</v>
+        <v>5200</v>
       </c>
       <c r="G228" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
@@ -6317,19 +6314,19 @@
         <v>5</v>
       </c>
       <c r="C229">
-        <v>46.7</v>
+        <v>43.3</v>
       </c>
       <c r="D229">
-        <v>15.3</v>
+        <v>13.4</v>
       </c>
       <c r="E229">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="F229">
-        <v>5200</v>
+        <v>4400</v>
       </c>
       <c r="G229" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
@@ -6340,19 +6337,19 @@
         <v>5</v>
       </c>
       <c r="C230">
-        <v>43.3</v>
+        <v>46.8</v>
       </c>
       <c r="D230">
-        <v>13.4</v>
+        <v>15.4</v>
       </c>
       <c r="E230">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F230">
-        <v>4400</v>
+        <v>5150</v>
       </c>
       <c r="G230" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
@@ -6363,19 +6360,19 @@
         <v>5</v>
       </c>
       <c r="C231">
-        <v>46.8</v>
+        <v>40.9</v>
       </c>
       <c r="D231">
-        <v>15.4</v>
+        <v>13.7</v>
       </c>
       <c r="E231">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F231">
-        <v>5150</v>
+        <v>4650</v>
       </c>
       <c r="G231" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
@@ -6386,19 +6383,19 @@
         <v>5</v>
       </c>
       <c r="C232">
-        <v>40.9</v>
+        <v>49</v>
       </c>
       <c r="D232">
-        <v>13.7</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="E232">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F232">
-        <v>4650</v>
+        <v>5550</v>
       </c>
       <c r="G232" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
@@ -6409,19 +6406,19 @@
         <v>5</v>
       </c>
       <c r="C233">
-        <v>49</v>
+        <v>45.5</v>
       </c>
       <c r="D233">
-        <v>16.100000000000001</v>
+        <v>13.7</v>
       </c>
       <c r="E233">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F233">
-        <v>5550</v>
+        <v>4650</v>
       </c>
       <c r="G233" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
@@ -6432,19 +6429,19 @@
         <v>5</v>
       </c>
       <c r="C234">
-        <v>45.5</v>
+        <v>48.4</v>
       </c>
       <c r="D234">
-        <v>13.7</v>
+        <v>14.6</v>
       </c>
       <c r="E234">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F234">
-        <v>4650</v>
+        <v>5850</v>
       </c>
       <c r="G234" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
@@ -6455,19 +6452,19 @@
         <v>5</v>
       </c>
       <c r="C235">
-        <v>48.4</v>
+        <v>45.8</v>
       </c>
       <c r="D235">
         <v>14.6</v>
       </c>
       <c r="E235">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F235">
-        <v>5850</v>
+        <v>4200</v>
       </c>
       <c r="G235" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
@@ -6478,19 +6475,19 @@
         <v>5</v>
       </c>
       <c r="C236">
-        <v>45.8</v>
+        <v>49.3</v>
       </c>
       <c r="D236">
-        <v>14.6</v>
+        <v>15.7</v>
       </c>
       <c r="E236">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F236">
-        <v>4200</v>
+        <v>5850</v>
       </c>
       <c r="G236" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
@@ -6501,19 +6498,19 @@
         <v>5</v>
       </c>
       <c r="C237">
-        <v>49.3</v>
+        <v>42</v>
       </c>
       <c r="D237">
-        <v>15.7</v>
+        <v>13.5</v>
       </c>
       <c r="E237">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F237">
-        <v>5850</v>
+        <v>4150</v>
       </c>
       <c r="G237" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
@@ -6524,19 +6521,19 @@
         <v>5</v>
       </c>
       <c r="C238">
-        <v>42</v>
+        <v>49.2</v>
       </c>
       <c r="D238">
-        <v>13.5</v>
+        <v>15.2</v>
       </c>
       <c r="E238">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="F238">
-        <v>4150</v>
+        <v>6300</v>
       </c>
       <c r="G238" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
@@ -6547,19 +6544,19 @@
         <v>5</v>
       </c>
       <c r="C239">
-        <v>49.2</v>
+        <v>46.2</v>
       </c>
       <c r="D239">
-        <v>15.2</v>
+        <v>14.5</v>
       </c>
       <c r="E239">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="F239">
-        <v>6300</v>
+        <v>4800</v>
       </c>
       <c r="G239" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
@@ -6570,19 +6567,19 @@
         <v>5</v>
       </c>
       <c r="C240">
-        <v>46.2</v>
+        <v>48.7</v>
       </c>
       <c r="D240">
-        <v>14.5</v>
+        <v>15.1</v>
       </c>
       <c r="E240">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="F240">
-        <v>4800</v>
+        <v>5350</v>
       </c>
       <c r="G240" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
@@ -6593,16 +6590,16 @@
         <v>5</v>
       </c>
       <c r="C241">
-        <v>48.7</v>
+        <v>50.2</v>
       </c>
       <c r="D241">
-        <v>15.1</v>
+        <v>14.3</v>
       </c>
       <c r="E241">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F241">
-        <v>5350</v>
+        <v>5700</v>
       </c>
       <c r="G241" t="s">
         <v>2</v>
@@ -6616,19 +6613,19 @@
         <v>5</v>
       </c>
       <c r="C242">
-        <v>50.2</v>
+        <v>45.1</v>
       </c>
       <c r="D242">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="E242">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F242">
-        <v>5700</v>
+        <v>5000</v>
       </c>
       <c r="G242" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
@@ -6639,16 +6636,16 @@
         <v>5</v>
       </c>
       <c r="C243">
-        <v>45.1</v>
+        <v>46.5</v>
       </c>
       <c r="D243">
         <v>14.5</v>
       </c>
       <c r="E243">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F243">
-        <v>5000</v>
+        <v>4400</v>
       </c>
       <c r="G243" t="s">
         <v>3</v>
@@ -6662,19 +6659,19 @@
         <v>5</v>
       </c>
       <c r="C244">
-        <v>46.5</v>
+        <v>46.3</v>
       </c>
       <c r="D244">
-        <v>14.5</v>
+        <v>15.8</v>
       </c>
       <c r="E244">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F244">
-        <v>4400</v>
+        <v>5050</v>
       </c>
       <c r="G244" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
@@ -6685,19 +6682,19 @@
         <v>5</v>
       </c>
       <c r="C245">
-        <v>46.3</v>
+        <v>42.9</v>
       </c>
       <c r="D245">
-        <v>15.8</v>
+        <v>13.1</v>
       </c>
       <c r="E245">
         <v>215</v>
       </c>
       <c r="F245">
-        <v>5050</v>
+        <v>5000</v>
       </c>
       <c r="G245" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
@@ -6708,19 +6705,19 @@
         <v>5</v>
       </c>
       <c r="C246">
-        <v>42.9</v>
+        <v>46.1</v>
       </c>
       <c r="D246">
-        <v>13.1</v>
+        <v>15.1</v>
       </c>
       <c r="E246">
         <v>215</v>
       </c>
       <c r="F246">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="G246" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
@@ -6731,19 +6728,19 @@
         <v>5</v>
       </c>
       <c r="C247">
-        <v>46.1</v>
+        <v>44.5</v>
       </c>
       <c r="D247">
-        <v>15.1</v>
+        <v>14.3</v>
       </c>
       <c r="E247">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F247">
-        <v>5100</v>
+        <v>4100</v>
       </c>
       <c r="G247" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
@@ -6754,19 +6751,19 @@
         <v>5</v>
       </c>
       <c r="C248">
-        <v>44.5</v>
+        <v>47.8</v>
       </c>
       <c r="D248">
-        <v>14.3</v>
+        <v>15</v>
       </c>
       <c r="E248">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F248">
-        <v>4100</v>
+        <v>5650</v>
       </c>
       <c r="G248" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
@@ -6777,19 +6774,19 @@
         <v>5</v>
       </c>
       <c r="C249">
-        <v>47.8</v>
+        <v>48.2</v>
       </c>
       <c r="D249">
-        <v>15</v>
+        <v>14.3</v>
       </c>
       <c r="E249">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F249">
-        <v>5650</v>
+        <v>4600</v>
       </c>
       <c r="G249" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
@@ -6800,19 +6797,19 @@
         <v>5</v>
       </c>
       <c r="C250">
-        <v>48.2</v>
+        <v>50</v>
       </c>
       <c r="D250">
-        <v>14.3</v>
+        <v>15.3</v>
       </c>
       <c r="E250">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="F250">
-        <v>4600</v>
+        <v>5550</v>
       </c>
       <c r="G250" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
@@ -6823,16 +6820,16 @@
         <v>5</v>
       </c>
       <c r="C251">
-        <v>50</v>
+        <v>47.3</v>
       </c>
       <c r="D251">
         <v>15.3</v>
       </c>
       <c r="E251">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F251">
-        <v>5550</v>
+        <v>5250</v>
       </c>
       <c r="G251" t="s">
         <v>2</v>
@@ -6846,19 +6843,19 @@
         <v>5</v>
       </c>
       <c r="C252">
-        <v>47.3</v>
+        <v>42.8</v>
       </c>
       <c r="D252">
-        <v>15.3</v>
+        <v>14.2</v>
       </c>
       <c r="E252">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="F252">
-        <v>5250</v>
+        <v>4700</v>
       </c>
       <c r="G252" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
@@ -6869,16 +6866,16 @@
         <v>5</v>
       </c>
       <c r="C253">
-        <v>42.8</v>
+        <v>45.1</v>
       </c>
       <c r="D253">
-        <v>14.2</v>
+        <v>14.5</v>
       </c>
       <c r="E253">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F253">
-        <v>4700</v>
+        <v>5050</v>
       </c>
       <c r="G253" t="s">
         <v>3</v>
@@ -6892,19 +6889,19 @@
         <v>5</v>
       </c>
       <c r="C254">
-        <v>45.1</v>
+        <v>59.6</v>
       </c>
       <c r="D254">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="E254">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="F254">
-        <v>5050</v>
+        <v>6050</v>
       </c>
       <c r="G254" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
@@ -6915,19 +6912,19 @@
         <v>5</v>
       </c>
       <c r="C255">
-        <v>59.6</v>
+        <v>49.1</v>
       </c>
       <c r="D255">
-        <v>17</v>
+        <v>14.8</v>
       </c>
       <c r="E255">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F255">
-        <v>6050</v>
+        <v>5150</v>
       </c>
       <c r="G255" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
@@ -6938,19 +6935,19 @@
         <v>5</v>
       </c>
       <c r="C256">
-        <v>49.1</v>
+        <v>48.4</v>
       </c>
       <c r="D256">
-        <v>14.8</v>
+        <v>16.3</v>
       </c>
       <c r="E256">
         <v>220</v>
       </c>
       <c r="F256">
-        <v>5150</v>
+        <v>5400</v>
       </c>
       <c r="G256" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
@@ -6961,19 +6958,19 @@
         <v>5</v>
       </c>
       <c r="C257">
-        <v>48.4</v>
+        <v>42.6</v>
       </c>
       <c r="D257">
-        <v>16.3</v>
+        <v>13.7</v>
       </c>
       <c r="E257">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F257">
-        <v>5400</v>
+        <v>4950</v>
       </c>
       <c r="G257" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
@@ -6984,19 +6981,19 @@
         <v>5</v>
       </c>
       <c r="C258">
-        <v>42.6</v>
+        <v>44.4</v>
       </c>
       <c r="D258">
-        <v>13.7</v>
+        <v>17.3</v>
       </c>
       <c r="E258">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F258">
-        <v>4950</v>
+        <v>5250</v>
       </c>
       <c r="G258" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
@@ -7007,19 +7004,19 @@
         <v>5</v>
       </c>
       <c r="C259">
-        <v>44.4</v>
+        <v>44</v>
       </c>
       <c r="D259">
-        <v>17.3</v>
+        <v>13.6</v>
       </c>
       <c r="E259">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="F259">
-        <v>5250</v>
+        <v>4350</v>
       </c>
       <c r="G259" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
@@ -7030,19 +7027,19 @@
         <v>5</v>
       </c>
       <c r="C260">
-        <v>44</v>
+        <v>48.7</v>
       </c>
       <c r="D260">
-        <v>13.6</v>
+        <v>15.7</v>
       </c>
       <c r="E260">
         <v>208</v>
       </c>
       <c r="F260">
-        <v>4350</v>
+        <v>5350</v>
       </c>
       <c r="G260" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
@@ -7053,19 +7050,19 @@
         <v>5</v>
       </c>
       <c r="C261">
-        <v>48.7</v>
+        <v>42.7</v>
       </c>
       <c r="D261">
-        <v>15.7</v>
+        <v>13.7</v>
       </c>
       <c r="E261">
         <v>208</v>
       </c>
       <c r="F261">
-        <v>5350</v>
+        <v>3950</v>
       </c>
       <c r="G261" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
@@ -7076,19 +7073,19 @@
         <v>5</v>
       </c>
       <c r="C262">
-        <v>42.7</v>
+        <v>49.6</v>
       </c>
       <c r="D262">
-        <v>13.7</v>
+        <v>16</v>
       </c>
       <c r="E262">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="F262">
-        <v>3950</v>
+        <v>5700</v>
       </c>
       <c r="G262" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
@@ -7099,19 +7096,19 @@
         <v>5</v>
       </c>
       <c r="C263">
-        <v>49.6</v>
+        <v>45.3</v>
       </c>
       <c r="D263">
-        <v>16</v>
+        <v>13.7</v>
       </c>
       <c r="E263">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="F263">
-        <v>5700</v>
+        <v>4300</v>
       </c>
       <c r="G263" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
@@ -7122,19 +7119,19 @@
         <v>5</v>
       </c>
       <c r="C264">
-        <v>45.3</v>
+        <v>49.6</v>
       </c>
       <c r="D264">
-        <v>13.7</v>
+        <v>15</v>
       </c>
       <c r="E264">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F264">
-        <v>4300</v>
+        <v>4750</v>
       </c>
       <c r="G264" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.3">
@@ -7145,16 +7142,16 @@
         <v>5</v>
       </c>
       <c r="C265">
-        <v>49.6</v>
+        <v>50.5</v>
       </c>
       <c r="D265">
-        <v>15</v>
+        <v>15.9</v>
       </c>
       <c r="E265">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F265">
-        <v>4750</v>
+        <v>5550</v>
       </c>
       <c r="G265" t="s">
         <v>2</v>
@@ -7168,19 +7165,19 @@
         <v>5</v>
       </c>
       <c r="C266">
-        <v>50.5</v>
+        <v>43.6</v>
       </c>
       <c r="D266">
-        <v>15.9</v>
+        <v>13.9</v>
       </c>
       <c r="E266">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F266">
-        <v>5550</v>
+        <v>4900</v>
       </c>
       <c r="G266" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
@@ -7191,16 +7188,16 @@
         <v>5</v>
       </c>
       <c r="C267">
-        <v>43.6</v>
+        <v>45.5</v>
       </c>
       <c r="D267">
         <v>13.9</v>
       </c>
       <c r="E267">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F267">
-        <v>4900</v>
+        <v>4200</v>
       </c>
       <c r="G267" t="s">
         <v>3</v>
@@ -7214,19 +7211,19 @@
         <v>5</v>
       </c>
       <c r="C268">
-        <v>45.5</v>
+        <v>50.5</v>
       </c>
       <c r="D268">
-        <v>13.9</v>
+        <v>15.9</v>
       </c>
       <c r="E268">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="F268">
-        <v>4200</v>
+        <v>5400</v>
       </c>
       <c r="G268" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.3">
@@ -7237,19 +7234,19 @@
         <v>5</v>
       </c>
       <c r="C269">
-        <v>50.5</v>
+        <v>44.9</v>
       </c>
       <c r="D269">
-        <v>15.9</v>
+        <v>13.3</v>
       </c>
       <c r="E269">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="F269">
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="G269" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.3">
@@ -7260,19 +7257,19 @@
         <v>5</v>
       </c>
       <c r="C270">
-        <v>44.9</v>
+        <v>45.2</v>
       </c>
       <c r="D270">
-        <v>13.3</v>
+        <v>15.8</v>
       </c>
       <c r="E270">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F270">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="G270" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
@@ -7283,19 +7280,19 @@
         <v>5</v>
       </c>
       <c r="C271">
-        <v>45.2</v>
+        <v>46.6</v>
       </c>
       <c r="D271">
-        <v>15.8</v>
+        <v>14.2</v>
       </c>
       <c r="E271">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F271">
-        <v>5300</v>
+        <v>4850</v>
       </c>
       <c r="G271" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
@@ -7306,19 +7303,19 @@
         <v>5</v>
       </c>
       <c r="C272">
-        <v>46.6</v>
+        <v>48.5</v>
       </c>
       <c r="D272">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="E272">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="F272">
-        <v>4850</v>
+        <v>5300</v>
       </c>
       <c r="G272" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
@@ -7329,19 +7326,19 @@
         <v>5</v>
       </c>
       <c r="C273">
-        <v>48.5</v>
+        <v>45.1</v>
       </c>
       <c r="D273">
-        <v>14.1</v>
+        <v>14.4</v>
       </c>
       <c r="E273">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="F273">
-        <v>5300</v>
+        <v>4400</v>
       </c>
       <c r="G273" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
@@ -7352,19 +7349,19 @@
         <v>5</v>
       </c>
       <c r="C274">
-        <v>45.1</v>
+        <v>50.1</v>
       </c>
       <c r="D274">
-        <v>14.4</v>
+        <v>15</v>
       </c>
       <c r="E274">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="F274">
-        <v>4400</v>
+        <v>5000</v>
       </c>
       <c r="G274" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
@@ -7375,19 +7372,19 @@
         <v>5</v>
       </c>
       <c r="C275">
-        <v>50.1</v>
+        <v>46.5</v>
       </c>
       <c r="D275">
-        <v>15</v>
+        <v>14.4</v>
       </c>
       <c r="E275">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F275">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="G275" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
@@ -7398,19 +7395,19 @@
         <v>5</v>
       </c>
       <c r="C276">
-        <v>46.5</v>
+        <v>45</v>
       </c>
       <c r="D276">
-        <v>14.4</v>
+        <v>15.4</v>
       </c>
       <c r="E276">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F276">
-        <v>4900</v>
+        <v>5050</v>
       </c>
       <c r="G276" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
@@ -7421,19 +7418,19 @@
         <v>5</v>
       </c>
       <c r="C277">
-        <v>45</v>
+        <v>43.8</v>
       </c>
       <c r="D277">
-        <v>15.4</v>
+        <v>13.9</v>
       </c>
       <c r="E277">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="F277">
-        <v>5050</v>
+        <v>4300</v>
       </c>
       <c r="G277" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
@@ -7444,19 +7441,19 @@
         <v>5</v>
       </c>
       <c r="C278">
-        <v>43.8</v>
+        <v>45.5</v>
       </c>
       <c r="D278">
-        <v>13.9</v>
+        <v>15</v>
       </c>
       <c r="E278">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="F278">
-        <v>4300</v>
+        <v>5000</v>
       </c>
       <c r="G278" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
@@ -7467,19 +7464,19 @@
         <v>5</v>
       </c>
       <c r="C279">
-        <v>45.5</v>
+        <v>43.2</v>
       </c>
       <c r="D279">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="E279">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="F279">
-        <v>5000</v>
+        <v>4450</v>
       </c>
       <c r="G279" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
@@ -7490,19 +7487,19 @@
         <v>5</v>
       </c>
       <c r="C280">
-        <v>43.2</v>
+        <v>50.4</v>
       </c>
       <c r="D280">
-        <v>14.5</v>
+        <v>15.3</v>
       </c>
       <c r="E280">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="F280">
-        <v>4450</v>
+        <v>5550</v>
       </c>
       <c r="G280" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.3">
@@ -7513,19 +7510,19 @@
         <v>5</v>
       </c>
       <c r="C281">
-        <v>50.4</v>
+        <v>45.3</v>
       </c>
       <c r="D281">
-        <v>15.3</v>
+        <v>13.8</v>
       </c>
       <c r="E281">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="F281">
-        <v>5550</v>
+        <v>4200</v>
       </c>
       <c r="G281" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.3">
@@ -7536,19 +7533,19 @@
         <v>5</v>
       </c>
       <c r="C282">
-        <v>45.3</v>
+        <v>46.2</v>
       </c>
       <c r="D282">
-        <v>13.8</v>
+        <v>14.9</v>
       </c>
       <c r="E282">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="F282">
-        <v>4200</v>
+        <v>5300</v>
       </c>
       <c r="G282" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.3">
@@ -7559,19 +7556,19 @@
         <v>5</v>
       </c>
       <c r="C283">
-        <v>46.2</v>
+        <v>45.7</v>
       </c>
       <c r="D283">
-        <v>14.9</v>
+        <v>13.9</v>
       </c>
       <c r="E283">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F283">
-        <v>5300</v>
+        <v>4400</v>
       </c>
       <c r="G283" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.3">
@@ -7582,19 +7579,19 @@
         <v>5</v>
       </c>
       <c r="C284">
-        <v>45.7</v>
+        <v>54.3</v>
       </c>
       <c r="D284">
-        <v>13.9</v>
+        <v>15.7</v>
       </c>
       <c r="E284">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="F284">
-        <v>4400</v>
+        <v>5650</v>
       </c>
       <c r="G284" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.3">
@@ -7605,19 +7602,19 @@
         <v>5</v>
       </c>
       <c r="C285">
-        <v>54.3</v>
+        <v>45.8</v>
       </c>
       <c r="D285">
-        <v>15.7</v>
+        <v>14.2</v>
       </c>
       <c r="E285">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="F285">
-        <v>5650</v>
+        <v>4700</v>
       </c>
       <c r="G285" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.3">
@@ -7628,19 +7625,19 @@
         <v>5</v>
       </c>
       <c r="C286">
-        <v>45.8</v>
+        <v>49.8</v>
       </c>
       <c r="D286">
-        <v>14.2</v>
+        <v>16.8</v>
       </c>
       <c r="E286">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="F286">
-        <v>4700</v>
+        <v>5700</v>
       </c>
       <c r="G286" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.3">
@@ -7651,19 +7648,19 @@
         <v>5</v>
       </c>
       <c r="C287">
-        <v>49.8</v>
+        <v>46.2</v>
       </c>
       <c r="D287">
-        <v>16.8</v>
+        <v>14.4</v>
       </c>
       <c r="E287">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="F287">
-        <v>5700</v>
+        <v>4650</v>
       </c>
       <c r="G287" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.3">
@@ -7674,19 +7671,19 @@
         <v>5</v>
       </c>
       <c r="C288">
-        <v>46.2</v>
+        <v>49.5</v>
       </c>
       <c r="D288">
-        <v>14.4</v>
+        <v>16.2</v>
       </c>
       <c r="E288">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="F288">
-        <v>4650</v>
+        <v>5800</v>
       </c>
       <c r="G288" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.3">
@@ -7697,19 +7694,19 @@
         <v>5</v>
       </c>
       <c r="C289">
-        <v>49.5</v>
+        <v>43.5</v>
       </c>
       <c r="D289">
-        <v>16.2</v>
+        <v>14.2</v>
       </c>
       <c r="E289">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="F289">
-        <v>5800</v>
+        <v>4700</v>
       </c>
       <c r="G289" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.3">
@@ -7720,19 +7717,19 @@
         <v>5</v>
       </c>
       <c r="C290">
-        <v>43.5</v>
+        <v>50.7</v>
       </c>
       <c r="D290">
-        <v>14.2</v>
+        <v>15</v>
       </c>
       <c r="E290">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F290">
-        <v>4700</v>
+        <v>5550</v>
       </c>
       <c r="G290" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.3">
@@ -7743,19 +7740,19 @@
         <v>5</v>
       </c>
       <c r="C291">
-        <v>50.7</v>
+        <v>47.7</v>
       </c>
       <c r="D291">
         <v>15</v>
       </c>
       <c r="E291">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F291">
-        <v>5550</v>
+        <v>4750</v>
       </c>
       <c r="G291" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.3">
@@ -7766,19 +7763,19 @@
         <v>5</v>
       </c>
       <c r="C292">
-        <v>47.7</v>
+        <v>46.4</v>
       </c>
       <c r="D292">
-        <v>15</v>
+        <v>15.6</v>
       </c>
       <c r="E292">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F292">
-        <v>4750</v>
+        <v>5000</v>
       </c>
       <c r="G292" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.3">
@@ -7789,7 +7786,7 @@
         <v>5</v>
       </c>
       <c r="C293">
-        <v>46.4</v>
+        <v>48.2</v>
       </c>
       <c r="D293">
         <v>15.6</v>
@@ -7798,7 +7795,7 @@
         <v>221</v>
       </c>
       <c r="F293">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="G293" t="s">
         <v>2</v>
@@ -7812,19 +7809,19 @@
         <v>5</v>
       </c>
       <c r="C294">
-        <v>48.2</v>
+        <v>46.5</v>
       </c>
       <c r="D294">
-        <v>15.6</v>
+        <v>14.8</v>
       </c>
       <c r="E294">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F294">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="G294" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.3">
@@ -7835,16 +7832,16 @@
         <v>5</v>
       </c>
       <c r="C295">
-        <v>46.5</v>
+        <v>46.4</v>
       </c>
       <c r="D295">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="E295">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F295">
-        <v>5200</v>
+        <v>4700</v>
       </c>
       <c r="G295" t="s">
         <v>3</v>
@@ -7858,19 +7855,19 @@
         <v>5</v>
       </c>
       <c r="C296">
-        <v>46.4</v>
+        <v>48.6</v>
       </c>
       <c r="D296">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E296">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F296">
-        <v>4700</v>
+        <v>5800</v>
       </c>
       <c r="G296" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.3">
@@ -7881,19 +7878,19 @@
         <v>5</v>
       </c>
       <c r="C297">
-        <v>48.6</v>
+        <v>47.5</v>
       </c>
       <c r="D297">
-        <v>16</v>
+        <v>14.2</v>
       </c>
       <c r="E297">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="F297">
-        <v>5800</v>
+        <v>4600</v>
       </c>
       <c r="G297" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.3">
@@ -7904,19 +7901,19 @@
         <v>5</v>
       </c>
       <c r="C298">
-        <v>47.5</v>
+        <v>51.1</v>
       </c>
       <c r="D298">
-        <v>14.2</v>
+        <v>16.3</v>
       </c>
       <c r="E298">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="F298">
-        <v>4600</v>
+        <v>6000</v>
       </c>
       <c r="G298" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.3">
@@ -7927,19 +7924,19 @@
         <v>5</v>
       </c>
       <c r="C299">
-        <v>51.1</v>
+        <v>45.2</v>
       </c>
       <c r="D299">
-        <v>16.3</v>
+        <v>13.8</v>
       </c>
       <c r="E299">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F299">
-        <v>6000</v>
+        <v>4750</v>
       </c>
       <c r="G299" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.3">
@@ -7953,16 +7950,16 @@
         <v>45.2</v>
       </c>
       <c r="D300">
-        <v>13.8</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="E300">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="F300">
-        <v>4750</v>
+        <v>5950</v>
       </c>
       <c r="G300" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.3">
@@ -7973,19 +7970,19 @@
         <v>5</v>
       </c>
       <c r="C301">
-        <v>45.2</v>
+        <v>49.1</v>
       </c>
       <c r="D301">
-        <v>16.399999999999999</v>
+        <v>14.5</v>
       </c>
       <c r="E301">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="F301">
-        <v>5950</v>
+        <v>4625</v>
       </c>
       <c r="G301" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.3">
@@ -7996,19 +7993,19 @@
         <v>5</v>
       </c>
       <c r="C302">
-        <v>49.1</v>
+        <v>52.5</v>
       </c>
       <c r="D302">
-        <v>14.5</v>
+        <v>15.6</v>
       </c>
       <c r="E302">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="F302">
-        <v>4625</v>
+        <v>5450</v>
       </c>
       <c r="G302" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.3">
@@ -8019,19 +8016,19 @@
         <v>5</v>
       </c>
       <c r="C303">
-        <v>52.5</v>
+        <v>47.4</v>
       </c>
       <c r="D303">
-        <v>15.6</v>
+        <v>14.6</v>
       </c>
       <c r="E303">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F303">
-        <v>5450</v>
+        <v>4725</v>
       </c>
       <c r="G303" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.3">
@@ -8042,19 +8039,19 @@
         <v>5</v>
       </c>
       <c r="C304">
-        <v>47.4</v>
+        <v>50</v>
       </c>
       <c r="D304">
-        <v>14.6</v>
+        <v>15.9</v>
       </c>
       <c r="E304">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="F304">
-        <v>4725</v>
+        <v>5350</v>
       </c>
       <c r="G304" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.3">
@@ -8065,19 +8062,19 @@
         <v>5</v>
       </c>
       <c r="C305">
-        <v>50</v>
+        <v>44.9</v>
       </c>
       <c r="D305">
-        <v>15.9</v>
+        <v>13.8</v>
       </c>
       <c r="E305">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="F305">
-        <v>5350</v>
+        <v>4750</v>
       </c>
       <c r="G305" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.3">
@@ -8088,19 +8085,19 @@
         <v>5</v>
       </c>
       <c r="C306">
-        <v>44.9</v>
+        <v>50.8</v>
       </c>
       <c r="D306">
-        <v>13.8</v>
+        <v>17.3</v>
       </c>
       <c r="E306">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="F306">
-        <v>4750</v>
+        <v>5600</v>
       </c>
       <c r="G306" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.3">
@@ -8111,19 +8108,19 @@
         <v>5</v>
       </c>
       <c r="C307">
-        <v>50.8</v>
+        <v>43.4</v>
       </c>
       <c r="D307">
-        <v>17.3</v>
+        <v>14.4</v>
       </c>
       <c r="E307">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F307">
-        <v>5600</v>
+        <v>4600</v>
       </c>
       <c r="G307" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.3">
@@ -8134,19 +8131,19 @@
         <v>5</v>
       </c>
       <c r="C308">
-        <v>43.4</v>
+        <v>51.3</v>
       </c>
       <c r="D308">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="E308">
         <v>218</v>
       </c>
       <c r="F308">
-        <v>4600</v>
+        <v>5300</v>
       </c>
       <c r="G308" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.3">
@@ -8157,19 +8154,19 @@
         <v>5</v>
       </c>
       <c r="C309">
-        <v>51.3</v>
+        <v>47.5</v>
       </c>
       <c r="D309">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="E309">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F309">
-        <v>5300</v>
+        <v>4875</v>
       </c>
       <c r="G309" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.3">
@@ -8180,19 +8177,19 @@
         <v>5</v>
       </c>
       <c r="C310">
-        <v>47.5</v>
+        <v>52.1</v>
       </c>
       <c r="D310">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E310">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="F310">
-        <v>4875</v>
+        <v>5550</v>
       </c>
       <c r="G310" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.3">
@@ -8203,19 +8200,19 @@
         <v>5</v>
       </c>
       <c r="C311">
-        <v>52.1</v>
+        <v>47.5</v>
       </c>
       <c r="D311">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E311">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="F311">
-        <v>5550</v>
+        <v>4950</v>
       </c>
       <c r="G311" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.3">
@@ -8226,19 +8223,19 @@
         <v>5</v>
       </c>
       <c r="C312">
-        <v>47.5</v>
+        <v>52.2</v>
       </c>
       <c r="D312">
-        <v>15</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="E312">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="F312">
-        <v>4950</v>
+        <v>5400</v>
       </c>
       <c r="G312" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.3">
@@ -8249,19 +8246,19 @@
         <v>5</v>
       </c>
       <c r="C313">
-        <v>52.2</v>
+        <v>45.5</v>
       </c>
       <c r="D313">
-        <v>17.100000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="E313">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="F313">
-        <v>5400</v>
+        <v>4750</v>
       </c>
       <c r="G313" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.3">
@@ -8272,19 +8269,19 @@
         <v>5</v>
       </c>
       <c r="C314">
-        <v>45.5</v>
+        <v>49.5</v>
       </c>
       <c r="D314">
-        <v>14.5</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="E314">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="F314">
-        <v>4750</v>
+        <v>5650</v>
       </c>
       <c r="G314" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.3">
@@ -8295,19 +8292,19 @@
         <v>5</v>
       </c>
       <c r="C315">
-        <v>49.5</v>
+        <v>44.5</v>
       </c>
       <c r="D315">
-        <v>16.100000000000001</v>
+        <v>14.7</v>
       </c>
       <c r="E315">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="F315">
-        <v>5650</v>
+        <v>4850</v>
       </c>
       <c r="G315" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.3">
@@ -8318,19 +8315,19 @@
         <v>5</v>
       </c>
       <c r="C316">
-        <v>44.5</v>
+        <v>50.8</v>
       </c>
       <c r="D316">
-        <v>14.7</v>
+        <v>15.7</v>
       </c>
       <c r="E316">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="F316">
-        <v>4850</v>
+        <v>5200</v>
       </c>
       <c r="G316" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.3">
@@ -8341,16 +8338,16 @@
         <v>5</v>
       </c>
       <c r="C317">
-        <v>50.8</v>
+        <v>49.4</v>
       </c>
       <c r="D317">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E317">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F317">
-        <v>5200</v>
+        <v>4925</v>
       </c>
       <c r="G317" t="s">
         <v>2</v>
@@ -8364,19 +8361,19 @@
         <v>5</v>
       </c>
       <c r="C318">
-        <v>49.4</v>
+        <v>46.9</v>
       </c>
       <c r="D318">
-        <v>15.8</v>
+        <v>14.6</v>
       </c>
       <c r="E318">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F318">
-        <v>4925</v>
+        <v>4875</v>
       </c>
       <c r="G318" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.3">
@@ -8387,16 +8384,16 @@
         <v>5</v>
       </c>
       <c r="C319">
-        <v>46.9</v>
+        <v>48.4</v>
       </c>
       <c r="D319">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="E319">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="F319">
-        <v>4875</v>
+        <v>4625</v>
       </c>
       <c r="G319" t="s">
         <v>3</v>
@@ -8410,19 +8407,19 @@
         <v>5</v>
       </c>
       <c r="C320">
-        <v>48.4</v>
+        <v>51.1</v>
       </c>
       <c r="D320">
-        <v>14.4</v>
+        <v>16.5</v>
       </c>
       <c r="E320">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="F320">
-        <v>4625</v>
+        <v>5250</v>
       </c>
       <c r="G320" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.3">
@@ -8433,19 +8430,19 @@
         <v>5</v>
       </c>
       <c r="C321">
-        <v>51.1</v>
+        <v>48.5</v>
       </c>
       <c r="D321">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="E321">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F321">
-        <v>5250</v>
+        <v>4850</v>
       </c>
       <c r="G321" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.3">
@@ -8456,19 +8453,19 @@
         <v>5</v>
       </c>
       <c r="C322">
-        <v>48.5</v>
+        <v>55.9</v>
       </c>
       <c r="D322">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E322">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="F322">
-        <v>4850</v>
+        <v>5600</v>
       </c>
       <c r="G322" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.3">
@@ -8479,19 +8476,19 @@
         <v>5</v>
       </c>
       <c r="C323">
-        <v>55.9</v>
+        <v>47.2</v>
       </c>
       <c r="D323">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="E323">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="F323">
-        <v>5600</v>
+        <v>4975</v>
       </c>
       <c r="G323" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.3">
@@ -8502,19 +8499,19 @@
         <v>5</v>
       </c>
       <c r="C324">
-        <v>47.2</v>
+        <v>49.1</v>
       </c>
       <c r="D324">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="E324">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="F324">
-        <v>4975</v>
+        <v>5500</v>
       </c>
       <c r="G324" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.3">
@@ -8525,19 +8522,19 @@
         <v>5</v>
       </c>
       <c r="C325">
-        <v>49.1</v>
+        <v>47.3</v>
       </c>
       <c r="D325">
-        <v>15</v>
+        <v>13.8</v>
       </c>
       <c r="E325">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="F325">
-        <v>5500</v>
+        <v>4725</v>
       </c>
       <c r="G325" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.3">
@@ -8548,19 +8545,19 @@
         <v>5</v>
       </c>
       <c r="C326">
-        <v>47.3</v>
+        <v>46.8</v>
       </c>
       <c r="D326">
-        <v>13.8</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="E326">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F326">
-        <v>4725</v>
+        <v>5500</v>
       </c>
       <c r="G326" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.3">
@@ -8571,19 +8568,19 @@
         <v>5</v>
       </c>
       <c r="C327">
-        <v>46.8</v>
+        <v>41.7</v>
       </c>
       <c r="D327">
-        <v>16.100000000000001</v>
+        <v>14.7</v>
       </c>
       <c r="E327">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F327">
-        <v>5500</v>
+        <v>4700</v>
       </c>
       <c r="G327" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.3">
@@ -8594,19 +8591,19 @@
         <v>5</v>
       </c>
       <c r="C328">
-        <v>41.7</v>
+        <v>53.4</v>
       </c>
       <c r="D328">
-        <v>14.7</v>
+        <v>15.8</v>
       </c>
       <c r="E328">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="F328">
-        <v>4700</v>
+        <v>5500</v>
       </c>
       <c r="G328" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.3">
@@ -8617,19 +8614,19 @@
         <v>5</v>
       </c>
       <c r="C329">
-        <v>53.4</v>
+        <v>43.3</v>
       </c>
       <c r="D329">
-        <v>15.8</v>
+        <v>14</v>
       </c>
       <c r="E329">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="F329">
-        <v>5500</v>
+        <v>4575</v>
       </c>
       <c r="G329" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.3">
@@ -8640,19 +8637,19 @@
         <v>5</v>
       </c>
       <c r="C330">
-        <v>43.3</v>
+        <v>48.1</v>
       </c>
       <c r="D330">
-        <v>14</v>
+        <v>15.1</v>
       </c>
       <c r="E330">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F330">
-        <v>4575</v>
+        <v>5500</v>
       </c>
       <c r="G330" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.3">
@@ -8663,19 +8660,19 @@
         <v>5</v>
       </c>
       <c r="C331">
-        <v>48.1</v>
+        <v>50.5</v>
       </c>
       <c r="D331">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E331">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F331">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="G331" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.3">
@@ -8686,19 +8683,19 @@
         <v>5</v>
       </c>
       <c r="C332">
-        <v>50.5</v>
+        <v>49.8</v>
       </c>
       <c r="D332">
-        <v>15.2</v>
+        <v>15.9</v>
       </c>
       <c r="E332">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="F332">
-        <v>5000</v>
+        <v>5950</v>
       </c>
       <c r="G332" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.3">
@@ -8709,19 +8706,19 @@
         <v>5</v>
       </c>
       <c r="C333">
-        <v>49.8</v>
+        <v>43.5</v>
       </c>
       <c r="D333">
-        <v>15.9</v>
+        <v>15.2</v>
       </c>
       <c r="E333">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="F333">
-        <v>5950</v>
+        <v>4650</v>
       </c>
       <c r="G333" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.3">
@@ -8732,19 +8729,19 @@
         <v>5</v>
       </c>
       <c r="C334">
-        <v>43.5</v>
+        <v>51.5</v>
       </c>
       <c r="D334">
-        <v>15.2</v>
+        <v>16.3</v>
       </c>
       <c r="E334">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="F334">
-        <v>4650</v>
+        <v>5500</v>
       </c>
       <c r="G334" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.3">
@@ -8755,19 +8752,19 @@
         <v>5</v>
       </c>
       <c r="C335">
-        <v>51.5</v>
+        <v>46.2</v>
       </c>
       <c r="D335">
-        <v>16.3</v>
+        <v>14.1</v>
       </c>
       <c r="E335">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="F335">
-        <v>5500</v>
+        <v>4375</v>
       </c>
       <c r="G335" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.3">
@@ -8778,19 +8775,19 @@
         <v>5</v>
       </c>
       <c r="C336">
-        <v>46.2</v>
+        <v>55.1</v>
       </c>
       <c r="D336">
-        <v>14.1</v>
+        <v>16</v>
       </c>
       <c r="E336">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="F336">
-        <v>4375</v>
+        <v>5850</v>
       </c>
       <c r="G336" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.3">
@@ -8801,16 +8798,16 @@
         <v>5</v>
       </c>
       <c r="C337">
-        <v>55.1</v>
+        <v>48.8</v>
       </c>
       <c r="D337">
-        <v>16</v>
+        <v>16.2</v>
       </c>
       <c r="E337">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F337">
-        <v>5850</v>
+        <v>6000</v>
       </c>
       <c r="G337" t="s">
         <v>2</v>
@@ -8824,19 +8821,19 @@
         <v>5</v>
       </c>
       <c r="C338">
-        <v>44.5</v>
+        <v>47.2</v>
       </c>
       <c r="D338">
-        <v>15.7</v>
+        <v>13.7</v>
       </c>
       <c r="E338">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F338">
-        <v>4875</v>
+        <v>4925</v>
       </c>
       <c r="G338" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.3">
@@ -8847,19 +8844,19 @@
         <v>5</v>
       </c>
       <c r="C339">
-        <v>48.8</v>
+        <v>46.8</v>
       </c>
       <c r="D339">
-        <v>16.2</v>
+        <v>14.3</v>
       </c>
       <c r="E339">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F339">
-        <v>6000</v>
+        <v>4850</v>
       </c>
       <c r="G339" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.3">
@@ -8870,19 +8867,19 @@
         <v>5</v>
       </c>
       <c r="C340">
-        <v>47.2</v>
+        <v>50.4</v>
       </c>
       <c r="D340">
-        <v>13.7</v>
+        <v>15.7</v>
       </c>
       <c r="E340">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="F340">
-        <v>4925</v>
+        <v>5750</v>
       </c>
       <c r="G340" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.3">
@@ -8892,20 +8889,20 @@
       <c r="B341" t="s">
         <v>5</v>
       </c>
-      <c r="C341" t="s">
-        <v>4</v>
-      </c>
-      <c r="D341" t="s">
-        <v>4</v>
-      </c>
-      <c r="E341" t="s">
-        <v>4</v>
-      </c>
-      <c r="F341" t="s">
-        <v>4</v>
+      <c r="C341">
+        <v>45.2</v>
+      </c>
+      <c r="D341">
+        <v>14.8</v>
+      </c>
+      <c r="E341">
+        <v>212</v>
+      </c>
+      <c r="F341">
+        <v>5200</v>
       </c>
       <c r="G341" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.3">
@@ -8916,87 +8913,18 @@
         <v>5</v>
       </c>
       <c r="C342">
-        <v>46.8</v>
+        <v>49.9</v>
       </c>
       <c r="D342">
-        <v>14.3</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="E342">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F342">
-        <v>4850</v>
+        <v>5400</v>
       </c>
       <c r="G342" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A343" t="s">
-        <v>8</v>
-      </c>
-      <c r="B343" t="s">
-        <v>5</v>
-      </c>
-      <c r="C343">
-        <v>50.4</v>
-      </c>
-      <c r="D343">
-        <v>15.7</v>
-      </c>
-      <c r="E343">
-        <v>222</v>
-      </c>
-      <c r="F343">
-        <v>5750</v>
-      </c>
-      <c r="G343" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A344" t="s">
-        <v>8</v>
-      </c>
-      <c r="B344" t="s">
-        <v>5</v>
-      </c>
-      <c r="C344">
-        <v>45.2</v>
-      </c>
-      <c r="D344">
-        <v>14.8</v>
-      </c>
-      <c r="E344">
-        <v>212</v>
-      </c>
-      <c r="F344">
-        <v>5200</v>
-      </c>
-      <c r="G344" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A345" t="s">
-        <v>8</v>
-      </c>
-      <c r="B345" t="s">
-        <v>5</v>
-      </c>
-      <c r="C345">
-        <v>49.9</v>
-      </c>
-      <c r="D345">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="E345">
-        <v>213</v>
-      </c>
-      <c r="F345">
-        <v>5400</v>
-      </c>
-      <c r="G345" t="s">
         <v>2</v>
       </c>
     </row>
